--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4050A-F918-354F-ACC3-593986B8B7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708E734-D938-A24A-872B-C4DAD1893092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$I$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$I$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$I$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$I$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -743,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -907,12 +893,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -980,18 +975,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,12 +1009,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1050,6 +1027,29 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2275,13 +2275,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>96.85</v>
-    <v>20.49</v>
-    <v>1.4982</v>
-    <v>1.35</v>
-    <v>1.4161E-2</v>
-    <v>0.22</v>
-    <v>2.2759999999999998E-3</v>
+    <v>97.03</v>
+    <v>20.89</v>
+    <v>1.5074000000000001</v>
+    <v>1.44</v>
+    <v>1.6938999999999999E-2</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company that offers cruelty-free cosmetics and skin-care products. The Company offers a range of products for eyes, such as eyeshadow, eyeliner, mascara and eyelashes, eyebrows, concealer and primer, brushes and tools, and sets and palettes. It offers lipstick, lip gloss, lipliner, and lip care and brushes. The Company launches its products on elfcosmetics.com, and distribution is generally only broadened to its retail customers after it receives consumer validation online. It distributes products both through national and international retailers, as well as direct-to-consumers through its e-commerce channels. The Company sell its products in the United States primarily in the mass, drug store, food and specialty retail channels. Its products are also sold across international markets, including the United Kingdom, Canada, Australia and Germany. Its family brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People and Keys Soulcare.</v>
     <v>303</v>
@@ -2289,25 +2287,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>96.85</v>
+    <v>86.71</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45037.998236180472</v>
+    <v>45070.999818981247</v>
     <v>0</v>
-    <v>94.39</v>
-    <v>5152532000</v>
+    <v>83.8</v>
+    <v>4607326815</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>95.68</v>
-    <v>111.8096</v>
-    <v>95.33</v>
-    <v>96.68</v>
-    <v>96.9</v>
+    <v>84.39</v>
+    <v>77.848500000000001</v>
+    <v>85.01</v>
+    <v>86.45</v>
     <v>53294700</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>987625</v>
-    <v>877195</v>
+    <v>268</v>
+    <v>884883</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2339,8 +2336,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2361,7 +2356,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2378,7 +2372,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2389,16 +2383,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2464,19 +2455,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2521,9 +2506,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2531,9 +2513,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2895,10 +2874,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L86" sqref="L86"/>
+      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3590,15 +3569,15 @@
       </c>
       <c r="P16" s="32">
         <f>Q101/I3</f>
-        <v>13.139019010340299</v>
+        <v>11.748739184761128</v>
       </c>
       <c r="Q16" s="32">
         <f>Q101/I28</f>
-        <v>236.68038585209004</v>
+        <v>211.63650964630224</v>
       </c>
       <c r="R16" s="33">
         <f>Q101/I106</f>
-        <v>350.63164341612793</v>
+        <v>313.53023579448791</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19">
@@ -3689,6 +3668,21 @@
       </c>
       <c r="I19" s="10">
         <v>54627000</v>
+      </c>
+      <c r="J19" s="67">
+        <v>115000000</v>
+      </c>
+      <c r="K19" s="67">
+        <v>137000000</v>
+      </c>
+      <c r="L19" s="67">
+        <v>163100000</v>
+      </c>
+      <c r="M19" s="67">
+        <v>163100001</v>
+      </c>
+      <c r="N19" s="67">
+        <v>163100002</v>
       </c>
       <c r="O19" s="34">
         <f>I40-I56-I61</f>
@@ -3728,6 +3722,26 @@
         <f t="shared" si="3"/>
         <v>0.70087492605162383</v>
       </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="4">(J19/I19)-1</f>
+        <v>1.1051860801435187</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="5">(K19/J19)-1</f>
+        <v>0.19130434782608696</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="6">(L19/K19)-1</f>
+        <v>0.19051094890510956</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="7">(M19/L19)-1</f>
+        <v>6.1312077637154516E-9</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="8">(N19/M19)-1</f>
+        <v>6.1312077637154516E-9</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="19">
       <c r="A21" s="5" t="s">
@@ -3757,6 +3771,26 @@
       <c r="I21" s="2">
         <v>0.13930000000000001</v>
       </c>
+      <c r="J21" s="68">
+        <f>J19/J3</f>
+        <v>0.21178637200736647</v>
+      </c>
+      <c r="K21" s="68">
+        <f t="shared" ref="K21:L21" si="9">K19/K3</f>
+        <v>0.22312703583061888</v>
+      </c>
+      <c r="L21" s="68">
+        <f t="shared" si="9"/>
+        <v>0.2398529411764706</v>
+      </c>
+      <c r="M21" s="68">
+        <f t="shared" ref="M21:N21" si="10">M19/M3</f>
+        <v>0.22040540675675677</v>
+      </c>
+      <c r="N21" s="68">
+        <f t="shared" si="10"/>
+        <v>0.20387500250000001</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="19">
       <c r="A22" s="6" t="s">
@@ -3959,6 +3993,21 @@
       </c>
       <c r="I28" s="11">
         <v>21770000</v>
+      </c>
+      <c r="J28" s="69">
+        <v>78000000</v>
+      </c>
+      <c r="K28" s="69">
+        <v>95100000</v>
+      </c>
+      <c r="L28" s="69">
+        <v>114100000</v>
+      </c>
+      <c r="M28" s="69">
+        <v>114100001</v>
+      </c>
+      <c r="N28" s="69">
+        <v>114100002</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1">
@@ -3979,20 +4028,40 @@
         <v>-0.53622106049290519</v>
       </c>
       <c r="F29" s="15" t="e">
-        <f t="shared" ref="F29:I29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="11">(F28/E28)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-0.65153209572802506</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2.493260590500642</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
+        <v>2.5829122645842904</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
+        <v>0.21923076923076934</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
+        <v>0.19978969505783395</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
+        <v>8.764241998804323E-9</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
+        <v>8.7642417767597181E-9</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19">
@@ -4022,6 +4091,26 @@
       </c>
       <c r="I30" s="2">
         <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="J30" s="70">
+        <f>J28/J3</f>
+        <v>0.143646408839779</v>
+      </c>
+      <c r="K30" s="70">
+        <f t="shared" ref="K30:L30" si="17">K28/K3</f>
+        <v>0.15488599348534202</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="17"/>
+        <v>0.16779411764705882</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" ref="M30:N30" si="18">M28/M3</f>
+        <v>0.15418919054054053</v>
+      </c>
+      <c r="N30" s="70">
+        <f t="shared" si="18"/>
+        <v>0.14262500249999999</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="19">
@@ -4150,27 +4239,27 @@
         <v>-0.70663409633503016</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:I35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="19">(D34-C34)/C34</f>
         <v>2.9166021035607819</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-2.1497219287636813E-3</v>
       </c>
       <c r="F35" s="23" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="G35" s="23" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>2.3161514609351414E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>3.1929710547216425E-2</v>
       </c>
     </row>
@@ -5455,35 +5544,35 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:I80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:I80" si="20">B79/B3</f>
         <v>2.6278256962693233E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>3.1141235456315586E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>4.9924413089874317E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>6.289752650176679E-2</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>5.4756744717183253E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>6.1871679607682875E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>5.0097537963305329E-2</v>
       </c>
       <c r="J80" s="15"/>
@@ -5581,10 +5670,10 @@
       <c r="I83" s="1">
         <v>-27655000</v>
       </c>
-      <c r="P83" s="35" t="s">
+      <c r="P83" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="Q83" s="36"/>
+      <c r="Q83" s="64"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5614,10 +5703,10 @@
       <c r="I84" s="1">
         <v>1498000</v>
       </c>
-      <c r="P84" s="37" t="s">
+      <c r="P84" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="Q84" s="38"/>
+      <c r="Q84" s="66"/>
     </row>
     <row r="85" spans="1:17" ht="20">
       <c r="A85" s="5" t="s">
@@ -5755,10 +5844,10 @@
       <c r="I88" s="1">
         <v>-4818000</v>
       </c>
-      <c r="P88" s="39" t="s">
+      <c r="P88" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="Q88" s="40">
+      <c r="Q88" s="36">
         <f>Q85/(Q86+Q87)</f>
         <v>1.8059674703635013E-2</v>
       </c>
@@ -5768,35 +5857,35 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:I89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:I89" si="21">(-1*B88)/B3</f>
         <v>5.2984906981239518E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>4.0175634999803977E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.7952335783732511E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.3174416213285471E-2</v>
       </c>
       <c r="F89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>3.331082442699513E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>2.0351450756027789E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>1.2285958358302202E-2</v>
       </c>
       <c r="P89" s="24" t="s">
@@ -5871,10 +5960,10 @@
       <c r="I91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P91" s="39" t="s">
+      <c r="P91" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Q91" s="40">
+      <c r="Q91" s="36">
         <f>Q89/Q90</f>
         <v>0.14395816129920175</v>
       </c>
@@ -5907,10 +5996,10 @@
       <c r="I92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P92" s="41" t="s">
+      <c r="P92" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="Q92" s="42">
+      <c r="Q92" s="38">
         <f>Q88*(1-Q91)</f>
         <v>1.5459837139638008E-2</v>
       </c>
@@ -5943,10 +6032,10 @@
       <c r="I93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="37" t="s">
+      <c r="P93" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="Q93" s="38"/>
+      <c r="Q93" s="66"/>
     </row>
     <row r="94" spans="1:17" ht="20">
       <c r="A94" s="6" t="s">
@@ -5979,7 +6068,7 @@
       <c r="P94" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="Q94" s="43">
+      <c r="Q94" s="39">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -6014,9 +6103,9 @@
       <c r="P95" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="Q95" s="44" cm="1">
+      <c r="Q95" s="40" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.4982</v>
+        <v>1.5074000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6050,7 +6139,7 @@
       <c r="P96" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="Q96" s="43">
+      <c r="Q96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6082,12 +6171,12 @@
       <c r="I97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P97" s="41" t="s">
+      <c r="P97" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="Q97" s="42">
+      <c r="Q97" s="38">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.10544751000000001</v>
+        <v>0.10584357000000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19">
@@ -6118,10 +6207,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="37" t="s">
+      <c r="P98" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="Q98" s="38"/>
+      <c r="Q98" s="66"/>
     </row>
     <row r="99" spans="1:18" ht="20">
       <c r="A99" s="5" t="s">
@@ -6187,12 +6276,12 @@
       <c r="I100" s="10">
         <v>-29110000</v>
       </c>
-      <c r="P100" s="39" t="s">
+      <c r="P100" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="Q100" s="40">
+      <c r="Q100" s="36">
         <f>Q99/Q103</f>
-        <v>2.2203295813879521E-2</v>
+        <v>2.4765639596074474E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20">
@@ -6226,9 +6315,9 @@
       <c r="P101" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Q101" s="45" cm="1">
+      <c r="Q101" s="41" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5152532000</v>
+        <v>4607326815</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20">
@@ -6259,12 +6348,12 @@
       <c r="I102" s="10">
         <v>-14415000</v>
       </c>
-      <c r="P102" s="39" t="s">
+      <c r="P102" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="Q102" s="40">
+      <c r="Q102" s="36">
         <f>Q101/Q103</f>
-        <v>0.97779670418612052</v>
+        <v>0.97523436040392553</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20">
@@ -6295,12 +6384,12 @@
       <c r="I103" s="1">
         <v>57768000</v>
       </c>
-      <c r="P103" s="41" t="s">
+      <c r="P103" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="Q103" s="46">
+      <c r="Q103" s="42">
         <f>Q99+Q101</f>
-        <v>5269533000</v>
+        <v>4724327815</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1">
@@ -6331,10 +6420,10 @@
       <c r="I104" s="11">
         <v>43353000</v>
       </c>
-      <c r="P104" s="37" t="s">
+      <c r="P104" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="Q104" s="38"/>
+      <c r="Q104" s="66"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6362,7 +6451,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105" si="22">(H106/G106)-1</f>
         <v>-0.34077555816686256</v>
       </c>
       <c r="I105" s="15">
@@ -6380,7 +6469,7 @@
       </c>
       <c r="Q105" s="27">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.10344948707987878</v>
+        <v>0.10360515904663242</v>
       </c>
       <c r="R105" s="15"/>
     </row>
@@ -6412,33 +6501,33 @@
       <c r="I106" s="1">
         <v>14695000</v>
       </c>
-      <c r="J106" s="47">
-        <f>I106*(1+$Q$106)</f>
-        <v>17023334.208074592</v>
-      </c>
-      <c r="K106" s="47">
-        <f t="shared" ref="K106:N106" si="9">J106*(1+$Q$106)</f>
-        <v>19720578.942484017</v>
-      </c>
-      <c r="L106" s="47">
-        <f t="shared" si="9"/>
-        <v>22845185.85332587</v>
-      </c>
-      <c r="M106" s="47">
-        <f t="shared" si="9"/>
-        <v>26464867.90246642</v>
-      </c>
-      <c r="N106" s="47">
-        <f t="shared" si="9"/>
-        <v>30658066.762588087</v>
-      </c>
-      <c r="O106" s="48" t="s">
+      <c r="J106" s="71">
+        <f>I107*(1+$Q$106)</f>
+        <v>86883298.101775736</v>
+      </c>
+      <c r="K106" s="43">
+        <f t="shared" ref="K106:N106" si="23">J106*(1+$Q$106)</f>
+        <v>100649433.18722704</v>
+      </c>
+      <c r="L106" s="43">
+        <f t="shared" si="23"/>
+        <v>116596729.43174143</v>
+      </c>
+      <c r="M106" s="43">
+        <f t="shared" si="23"/>
+        <v>135070778.67880106</v>
+      </c>
+      <c r="N106" s="43">
+        <f t="shared" si="23"/>
+        <v>156471929.71718997</v>
+      </c>
+      <c r="O106" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="P106" s="49" t="s">
+      <c r="P106" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q106" s="50">
+      <c r="Q106" s="46">
         <f>(SUM(J4:N4)/5)</f>
         <v>0.15844397469034316</v>
       </c>
@@ -6452,152 +6541,154 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="48"/>
-      <c r="N107" s="51">
+      <c r="I107" s="1">
+        <v>75000000</v>
+      </c>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="47">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>400570094.22707552</v>
-      </c>
-      <c r="O107" s="52" t="s">
+        <v>2040371521.4795535</v>
+      </c>
+      <c r="O107" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="53" t="s">
+      <c r="P107" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="Q107" s="54">
+      <c r="Q107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19">
-      <c r="J108" s="51">
-        <f t="shared" ref="J108:L108" si="10">J107+J106</f>
-        <v>17023334.208074592</v>
-      </c>
-      <c r="K108" s="51">
-        <f t="shared" si="10"/>
-        <v>19720578.942484017</v>
-      </c>
-      <c r="L108" s="51">
-        <f t="shared" si="10"/>
-        <v>22845185.85332587</v>
-      </c>
-      <c r="M108" s="51">
+      <c r="J108" s="47">
+        <f t="shared" ref="J108:L108" si="24">J107+J106</f>
+        <v>86883298.101775736</v>
+      </c>
+      <c r="K108" s="47">
+        <f t="shared" si="24"/>
+        <v>100649433.18722704</v>
+      </c>
+      <c r="L108" s="47">
+        <f t="shared" si="24"/>
+        <v>116596729.43174143</v>
+      </c>
+      <c r="M108" s="47">
         <f>M107+M106</f>
-        <v>26464867.90246642</v>
-      </c>
-      <c r="N108" s="51">
+        <v>135070778.67880106</v>
+      </c>
+      <c r="N108" s="47">
         <f>N107+N106</f>
-        <v>431228160.9896636</v>
-      </c>
-      <c r="O108" s="52" t="s">
+        <v>2196843451.1967435</v>
+      </c>
+      <c r="O108" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="P108" s="55" t="s">
+      <c r="P108" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="Q108" s="56">
+      <c r="Q108" s="52">
         <f>Q105</f>
-        <v>0.10344948707987878</v>
+        <v>0.10360515904663242</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19">
-      <c r="J109" s="57" t="s">
+      <c r="J109" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="K109" s="58"/>
+      <c r="K109" s="62"/>
     </row>
     <row r="110" spans="1:18" ht="20">
-      <c r="J110" s="59" t="s">
+      <c r="J110" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="K110" s="45">
+      <c r="K110" s="41">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>330077641.5123176</v>
+        <v>1681098264.6346045</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20">
-      <c r="J111" s="59" t="s">
+      <c r="J111" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="K111" s="45">
+      <c r="K111" s="41">
         <f>I40</f>
         <v>43353000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20">
-      <c r="J112" s="59" t="s">
+      <c r="J112" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="K112" s="45">
+      <c r="K112" s="41">
         <f>Q99</f>
         <v>117001000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="59" t="s">
+      <c r="J113" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="K113" s="45">
+      <c r="K113" s="41">
         <f>K110+K111-K112</f>
-        <v>256429641.5123176</v>
+        <v>1607450264.6346045</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="59" t="s">
+      <c r="J114" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="K114" s="60">
+      <c r="K114" s="54">
         <f>I34*(1+(5*O16))</f>
         <v>61044006.21797929</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="61" t="s">
+      <c r="J115" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="K115" s="62">
+      <c r="K115" s="56">
         <f>K113/K114</f>
-        <v>4.2007341490111996</v>
+        <v>26.332646957911525</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="59" t="s">
+      <c r="J116" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="K116" s="63" cm="1">
+      <c r="K116" s="57" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>96.68</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="64" t="s">
+      <c r="J117" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="65">
+      <c r="K117" s="59">
         <f>K115/K116-1</f>
-        <v>-0.95655012257952832</v>
+        <v>-0.69540026653659315</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="64" t="s">
+      <c r="J118" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="K118" s="66" t="str">
+      <c r="K118" s="60" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J109:K109"/>
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="P93:Q93"/>
     <mergeCell ref="P98:Q98"/>
     <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="J109:K109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ELF" display="ROIC.AI | ELF" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708E734-D938-A24A-872B-C4DAD1893092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C1C98-8A05-F840-B3D6-BAC13215B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t>Share Dilution (2yr)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1036,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1045,11 +1059,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2275,36 +2284,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>97.03</v>
-    <v>20.89</v>
-    <v>1.5074000000000001</v>
-    <v>1.44</v>
-    <v>1.6938999999999999E-2</v>
+    <v>108.45</v>
+    <v>24.64</v>
+    <v>1.4729000000000001</v>
+    <v>-0.57999999999999996</v>
+    <v>-5.6579999999999998E-3</v>
+    <v>-0.64</v>
+    <v>-6.2789999999999999E-3</v>
     <v>USD</v>
-    <v>e.l.f. Beauty, Inc. is a multi-brand beauty company that offers cruelty-free cosmetics and skin-care products. The Company offers a range of products for eyes, such as eyeshadow, eyeliner, mascara and eyelashes, eyebrows, concealer and primer, brushes and tools, and sets and palettes. It offers lipstick, lip gloss, lipliner, and lip care and brushes. The Company launches its products on elfcosmetics.com, and distribution is generally only broadened to its retail customers after it receives consumer validation online. It distributes products both through national and international retailers, as well as direct-to-consumers through its e-commerce channels. The Company sell its products in the United States primarily in the mass, drug store, food and specialty retail channels. Its products are also sold across international markets, including the United Kingdom, Canada, Australia and Germany. Its family brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People and Keys Soulcare.</v>
-    <v>303</v>
+    <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
+    <v>339</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>86.71</v>
+    <v>103.91</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45070.999818981247</v>
+    <v>45091.990555878903</v>
     <v>0</v>
-    <v>83.8</v>
-    <v>4607326815</v>
+    <v>100.24</v>
+    <v>5490670445</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>84.39</v>
-    <v>77.848500000000001</v>
-    <v>85.01</v>
-    <v>86.45</v>
-    <v>53294700</v>
+    <v>102.13</v>
+    <v>91.784199999999998</v>
+    <v>102.51</v>
+    <v>101.93</v>
+    <v>101.29</v>
+    <v>53867070</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>268</v>
-    <v>884883</v>
+    <v>790201</v>
+    <v>1116881</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2336,6 +2348,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2356,6 +2370,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2372,7 +2387,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2383,13 +2398,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2455,13 +2473,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2506,6 +2530,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2513,6 +2540,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2874,10 +2904,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3569,18 +3599,18 @@
       </c>
       <c r="P16" s="32">
         <f>Q101/I3</f>
-        <v>11.748739184761128</v>
+        <v>14.001276140811669</v>
       </c>
       <c r="Q16" s="32">
         <f>Q101/I28</f>
-        <v>211.63650964630224</v>
+        <v>252.21269843821773</v>
       </c>
       <c r="R16" s="33">
         <f>Q101/I106</f>
-        <v>313.53023579448791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19">
+        <v>373.64208540319839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3639,7 @@
         <v>2113000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20">
+    <row r="18" spans="1:18" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3640,8 +3670,17 @@
       <c r="O18" s="19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19">
+      <c r="P18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3669,27 +3708,39 @@
       <c r="I19" s="10">
         <v>54627000</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="61">
         <v>115000000</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="61">
         <v>137000000</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="61">
         <v>163100000</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="61">
         <v>163100001</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="61">
         <v>163100002</v>
       </c>
       <c r="O19" s="34">
         <f>I40-I56-I61</f>
         <v>-73648000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1">
+      <c r="P19" s="32">
+        <f>Q101/J3</f>
+        <v>10.11173194290976</v>
+      </c>
+      <c r="Q19" s="32">
+        <f>Q101/J28</f>
+        <v>70.393210833333328</v>
+      </c>
+      <c r="R19" s="33">
+        <f>Q101/J106</f>
+        <v>63.195925626214006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3743,7 +3794,7 @@
         <v>6.1312077637154516E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19">
+    <row r="21" spans="1:18" ht="19">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3771,28 +3822,28 @@
       <c r="I21" s="2">
         <v>0.13930000000000001</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="62">
         <f>J19/J3</f>
         <v>0.21178637200736647</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="62">
         <f t="shared" ref="K21:L21" si="9">K19/K3</f>
         <v>0.22312703583061888</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="62">
         <f t="shared" si="9"/>
         <v>0.2398529411764706</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="62">
         <f t="shared" ref="M21:N21" si="10">M19/M3</f>
         <v>0.22040540675675677</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="62">
         <f t="shared" si="10"/>
         <v>0.20387500250000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19">
+    <row r="22" spans="1:18" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3872,7 @@
         <v>29770000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19">
+    <row r="23" spans="1:18" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3850,7 +3901,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19">
+    <row r="24" spans="1:18" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3879,7 +3930,7 @@
         <v>-4339000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19">
+    <row r="25" spans="1:18" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3908,7 +3959,7 @@
         <v>25431000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19">
+    <row r="26" spans="1:18" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +3988,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19">
+    <row r="27" spans="1:18" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3966,7 +4017,7 @@
         <v>3661000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20" thickBot="1">
+    <row r="28" spans="1:18" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3994,23 +4045,23 @@
       <c r="I28" s="11">
         <v>21770000</v>
       </c>
-      <c r="J28" s="69">
+      <c r="J28" s="63">
         <v>78000000</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="63">
         <v>95100000</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="63">
         <v>114100000</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="63">
         <v>114100001</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="63">
         <v>114100002</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1">
+    <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4064,7 +4115,7 @@
         <v>8.7642417767597181E-9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19">
+    <row r="30" spans="1:18" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4092,28 +4143,28 @@
       <c r="I30" s="2">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="J30" s="70">
+      <c r="J30" s="64">
         <f>J28/J3</f>
         <v>0.143646408839779</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K30" s="64">
         <f t="shared" ref="K30:L30" si="17">K28/K3</f>
         <v>0.15488599348534202</v>
       </c>
-      <c r="L30" s="70">
+      <c r="L30" s="64">
         <f t="shared" si="17"/>
         <v>0.16779411764705882</v>
       </c>
-      <c r="M30" s="70">
+      <c r="M30" s="64">
         <f t="shared" ref="M30:N30" si="18">M28/M3</f>
         <v>0.15418919054054053</v>
       </c>
-      <c r="N30" s="70">
+      <c r="N30" s="64">
         <f t="shared" si="18"/>
         <v>0.14262500249999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19">
+    <row r="31" spans="1:18" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +4193,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19">
+    <row r="32" spans="1:18" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5670,10 +5721,10 @@
       <c r="I83" s="1">
         <v>-27655000</v>
       </c>
-      <c r="P83" s="63" t="s">
+      <c r="P83" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Q83" s="64"/>
+      <c r="Q83" s="69"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5703,10 +5754,10 @@
       <c r="I84" s="1">
         <v>1498000</v>
       </c>
-      <c r="P84" s="65" t="s">
+      <c r="P84" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="Q84" s="66"/>
+      <c r="Q84" s="71"/>
     </row>
     <row r="85" spans="1:17" ht="20">
       <c r="A85" s="5" t="s">
@@ -6032,10 +6083,10 @@
       <c r="I93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="65" t="s">
+      <c r="P93" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Q93" s="66"/>
+      <c r="Q93" s="71"/>
     </row>
     <row r="94" spans="1:17" ht="20">
       <c r="A94" s="6" t="s">
@@ -6105,7 +6156,7 @@
       </c>
       <c r="Q95" s="40" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.5074000000000001</v>
+        <v>1.4729000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6176,7 +6227,7 @@
       </c>
       <c r="Q97" s="38">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.10584357000000001</v>
+        <v>0.10435834500000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19">
@@ -6207,10 +6258,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="65" t="s">
+      <c r="P98" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="Q98" s="66"/>
+      <c r="Q98" s="71"/>
     </row>
     <row r="99" spans="1:18" ht="20">
       <c r="A99" s="5" t="s">
@@ -6281,7 +6332,7 @@
       </c>
       <c r="Q100" s="36">
         <f>Q99/Q103</f>
-        <v>2.4765639596074474E-2</v>
+        <v>2.0864453480833343E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20">
@@ -6317,7 +6368,7 @@
       </c>
       <c r="Q101" s="41" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4607326815</v>
+        <v>5490670445</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20">
@@ -6353,7 +6404,7 @@
       </c>
       <c r="Q102" s="36">
         <f>Q101/Q103</f>
-        <v>0.97523436040392553</v>
+        <v>0.97913554651916668</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20">
@@ -6389,7 +6440,7 @@
       </c>
       <c r="Q103" s="42">
         <f>Q99+Q101</f>
-        <v>4724327815</v>
+        <v>5607671445</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1">
@@ -6420,10 +6471,10 @@
       <c r="I104" s="11">
         <v>43353000</v>
       </c>
-      <c r="P104" s="65" t="s">
+      <c r="P104" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="Q104" s="66"/>
+      <c r="Q104" s="71"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6469,7 +6520,7 @@
       </c>
       <c r="Q105" s="27">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.10360515904663242</v>
+        <v>0.10250352621823199</v>
       </c>
       <c r="R105" s="15"/>
     </row>
@@ -6501,7 +6552,7 @@
       <c r="I106" s="1">
         <v>14695000</v>
       </c>
-      <c r="J106" s="71">
+      <c r="J106" s="65">
         <f>I107*(1+$Q$106)</f>
         <v>86883298.101775736</v>
       </c>
@@ -6550,7 +6601,7 @@
       <c r="M107" s="44"/>
       <c r="N107" s="47">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>2040371521.4795535</v>
+        <v>2069373301.9129512</v>
       </c>
       <c r="O107" s="48" t="s">
         <v>143</v>
@@ -6581,7 +6632,7 @@
       </c>
       <c r="N108" s="47">
         <f>N107+N106</f>
-        <v>2196843451.1967435</v>
+        <v>2225845231.6301413</v>
       </c>
       <c r="O108" s="48" t="s">
         <v>139</v>
@@ -6591,14 +6642,14 @@
       </c>
       <c r="Q108" s="52">
         <f>Q105</f>
-        <v>0.10360515904663242</v>
+        <v>0.10250352621823199</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19">
-      <c r="J109" s="61" t="s">
+      <c r="J109" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="K109" s="62"/>
+      <c r="K109" s="67"/>
     </row>
     <row r="110" spans="1:18" ht="20">
       <c r="J110" s="53" t="s">
@@ -6606,7 +6657,7 @@
       </c>
       <c r="K110" s="41">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>1681098264.6346045</v>
+        <v>1706488994.2149491</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20">
@@ -6633,7 +6684,7 @@
       </c>
       <c r="K113" s="41">
         <f>K110+K111-K112</f>
-        <v>1607450264.6346045</v>
+        <v>1632840994.2149491</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6651,7 +6702,7 @@
       </c>
       <c r="K115" s="56">
         <f>K113/K114</f>
-        <v>26.332646957911525</v>
+        <v>26.7485883607362</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6660,7 +6711,7 @@
       </c>
       <c r="K116" s="57" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>86.45</v>
+        <v>101.93</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
@@ -6669,7 +6720,7 @@
       </c>
       <c r="K117" s="59">
         <f>K115/K116-1</f>
-        <v>-0.69540026653659315</v>
+        <v>-0.73757884469011881</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C1C98-8A05-F840-B3D6-BAC13215B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEDC031-7245-F44F-8724-A9884792CCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2284,13 +2284,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>108.45</v>
-    <v>24.64</v>
-    <v>1.4729000000000001</v>
-    <v>-0.57999999999999996</v>
-    <v>-5.6579999999999998E-3</v>
-    <v>-0.64</v>
-    <v>-6.2789999999999999E-3</v>
+    <v>113.38</v>
+    <v>26.733000000000001</v>
+    <v>1.4923</v>
+    <v>-3.8849999999999998</v>
+    <v>-3.4437999999999996E-2</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -2298,25 +2296,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>103.91</v>
+    <v>112.44</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45091.990555878903</v>
+    <v>45100.784788853904</v>
     <v>0</v>
-    <v>100.24</v>
-    <v>5490670445</v>
+    <v>108.78</v>
+    <v>5867470599</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>102.13</v>
-    <v>91.784199999999998</v>
-    <v>102.51</v>
-    <v>101.93</v>
-    <v>101.29</v>
+    <v>111.8</v>
+    <v>101.5812</v>
+    <v>112.81</v>
+    <v>108.925</v>
     <v>53867070</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>790201</v>
-    <v>1116881</v>
+    <v>535856</v>
+    <v>1226628</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2348,8 +2345,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2370,7 +2365,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2387,7 +2381,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2398,16 +2392,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2473,19 +2464,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2530,9 +2515,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2540,9 +2522,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2904,10 +2883,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3599,15 +3578,15 @@
       </c>
       <c r="P16" s="32">
         <f>Q101/I3</f>
-        <v>14.001276140811669</v>
+        <v>14.962121097525213</v>
       </c>
       <c r="Q16" s="32">
         <f>Q101/I28</f>
-        <v>252.21269843821773</v>
+        <v>269.5209278364722</v>
       </c>
       <c r="R16" s="33">
         <f>Q101/I106</f>
-        <v>373.64208540319839</v>
+        <v>399.28347050017015</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3729,15 +3708,15 @@
       </c>
       <c r="P19" s="32">
         <f>Q101/J3</f>
-        <v>10.11173194290976</v>
+        <v>10.805654878453039</v>
       </c>
       <c r="Q19" s="32">
         <f>Q101/J28</f>
-        <v>70.393210833333328</v>
+        <v>75.223982038461543</v>
       </c>
       <c r="R19" s="33">
         <f>Q101/J106</f>
-        <v>63.195925626214006</v>
+        <v>67.53277933955502</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -6156,7 +6135,7 @@
       </c>
       <c r="Q95" s="40" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.4729000000000001</v>
+        <v>1.4923</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6227,7 +6206,7 @@
       </c>
       <c r="Q97" s="38">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.10435834500000001</v>
+        <v>0.105193515</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19">
@@ -6332,7 +6311,7 @@
       </c>
       <c r="Q100" s="36">
         <f>Q99/Q103</f>
-        <v>2.0864453480833343E-2</v>
+        <v>1.9550765354045756E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20">
@@ -6368,7 +6347,7 @@
       </c>
       <c r="Q101" s="41" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5490670445</v>
+        <v>5867470599</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20">
@@ -6404,7 +6383,7 @@
       </c>
       <c r="Q102" s="36">
         <f>Q101/Q103</f>
-        <v>0.97913554651916668</v>
+        <v>0.98044923464595424</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20">
@@ -6440,7 +6419,7 @@
       </c>
       <c r="Q103" s="42">
         <f>Q99+Q101</f>
-        <v>5607671445</v>
+        <v>5984471599</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1">
@@ -6520,7 +6499,7 @@
       </c>
       <c r="Q105" s="27">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.10250352621823199</v>
+        <v>0.10343915291979654</v>
       </c>
       <c r="R105" s="15"/>
     </row>
@@ -6601,7 +6580,7 @@
       <c r="M107" s="44"/>
       <c r="N107" s="47">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>2069373301.9129512</v>
+        <v>2044689698.8307729</v>
       </c>
       <c r="O107" s="48" t="s">
         <v>143</v>
@@ -6632,7 +6611,7 @@
       </c>
       <c r="N108" s="47">
         <f>N107+N106</f>
-        <v>2225845231.6301413</v>
+        <v>2201161628.5479627</v>
       </c>
       <c r="O108" s="48" t="s">
         <v>139</v>
@@ -6642,7 +6621,7 @@
       </c>
       <c r="Q108" s="52">
         <f>Q105</f>
-        <v>0.10250352621823199</v>
+        <v>0.10343915291979654</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19">
@@ -6657,7 +6636,7 @@
       </c>
       <c r="K110" s="41">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>1706488994.2149491</v>
+        <v>1684878397.7867734</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20">
@@ -6684,7 +6663,7 @@
       </c>
       <c r="K113" s="41">
         <f>K110+K111-K112</f>
-        <v>1632840994.2149491</v>
+        <v>1611230397.7867734</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6702,7 +6681,7 @@
       </c>
       <c r="K115" s="56">
         <f>K113/K114</f>
-        <v>26.7485883607362</v>
+        <v>26.394571680523448</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6711,7 +6690,7 @@
       </c>
       <c r="K116" s="57" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>101.93</v>
+        <v>108.925</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20">
@@ -6720,7 +6699,7 @@
       </c>
       <c r="K117" s="59">
         <f>K115/K116-1</f>
-        <v>-0.73757884469011881</v>
+        <v>-0.75768123313726465</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEDC031-7245-F44F-8724-A9884792CCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475F254-9706-724C-ADE1-2F866FE1CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$107</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$107:$I$107</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$28:$I$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$28:$I$28</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$107</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$107:$I$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +359,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +407,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -495,9 +506,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -537,21 +545,6 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>2yr Rev Growth</t>
-  </si>
-  <si>
-    <t>2yr EBITDA Growth</t>
-  </si>
-  <si>
-    <t>2yr Net Income Growth</t>
-  </si>
-  <si>
-    <t>2yr FCF Growth</t>
-  </si>
-  <si>
-    <t>Share Dilution (2yr)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -559,18 +552,56 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>3yr Rev Growth</t>
+  </si>
+  <si>
+    <t>3yr EBITDA Growth</t>
+  </si>
+  <si>
+    <t>3yr Net Income Growth</t>
+  </si>
+  <si>
+    <t>3yr FCF Growth</t>
+  </si>
+  <si>
+    <t>Share Dilution (3yr)</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -916,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,12 +1006,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,7 +1029,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1059,6 +1083,25 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,9 +1152,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ELF</a:t>
+              <a:t>e.l.f Beauty</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1148,10 +1190,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.328920413873885E-2"/>
-          <c:y val="0.10690169385482645"/>
-          <c:w val="0.86852897767944282"/>
-          <c:h val="0.76326313925529943"/>
+          <c:x val="8.9897468601548777E-2"/>
+          <c:y val="0.13697821181586872"/>
+          <c:w val="0.84266451486952565"/>
+          <c:h val="0.68554286013102095"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1224,23 +1266,23 @@
                   <c:v>267435000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>282851000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>282851000</c:v>
+                  <c:v>318110000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>318110000</c:v>
+                  <c:v>392155000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392155000</c:v>
+                  <c:v>578800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6AA-8B49-A573-F0A9B9CA7A40}"/>
+              <c16:uniqueId val="{00000000-D7EE-514C-AF13-FBFC5DAEB301}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1249,11 +1291,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1293,40 +1335,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$I$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>31688000</c:v>
+                  <c:v>4357000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35230000</c:v>
+                  <c:v>5313000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44955000</c:v>
+                  <c:v>33475000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42841000</c:v>
+                  <c:v>15525000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17884000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53336000</c:v>
+                  <c:v>6232000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32117000</c:v>
+                  <c:v>21770000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54627000</c:v>
+                  <c:v>61530000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6AA-8B49-A573-F0A9B9CA7A40}"/>
+              <c16:uniqueId val="{00000001-D7EE-514C-AF13-FBFC5DAEB301}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,11 +1377,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,7 +1421,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$I$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$I$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1396,23 +1438,23 @@
                   <c:v>46710000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>34891000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34891000</c:v>
+                  <c:v>23001000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23001000</c:v>
+                  <c:v>14695000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14695000</c:v>
+                  <c:v>100160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B6AA-8B49-A573-F0A9B9CA7A40}"/>
+              <c16:uniqueId val="{00000002-D7EE-514C-AF13-FBFC5DAEB301}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,11 +1468,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="720528143"/>
-        <c:axId val="720530143"/>
+        <c:axId val="818492592"/>
+        <c:axId val="818494864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="720528143"/>
+        <c:axId val="818492592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720530143"/>
+        <c:crossAx val="818494864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720530143"/>
+        <c:axId val="818494864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1527,7 +1569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720528143"/>
+        <c:crossAx val="818492592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,10 +1587,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35772926400728833"/>
-          <c:y val="0.93169204309829756"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.4453251693436474E-2"/>
+          <c:x val="0.3431097806989003"/>
+          <c:y val="0.90413754730699392"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="5.696006028339233E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2128,22 +2170,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>1587</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A443D02-B949-6483-5A39-C7A04400578E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F92798C-0F71-5F0E-D752-D9C5FF04E48A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,6 +2204,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7679999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2284,11 +2388,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>113.38</v>
-    <v>26.733000000000001</v>
-    <v>1.4923</v>
-    <v>-3.8849999999999998</v>
-    <v>-3.4437999999999996E-2</v>
+    <v>113.43</v>
+    <v>27.93</v>
+    <v>1.4869000000000001</v>
+    <v>0.47</v>
+    <v>4.2690000000000002E-3</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -2296,24 +2400,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>112.44</v>
+    <v>113.43</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.784788853904</v>
+    <v>45105.982437881248</v>
     <v>0</v>
-    <v>108.78</v>
-    <v>5867470599</v>
+    <v>109.42</v>
+    <v>5955543259</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>111.8</v>
-    <v>101.5812</v>
-    <v>112.81</v>
-    <v>108.925</v>
+    <v>109.65</v>
+    <v>99.555199999999999</v>
+    <v>110.09</v>
+    <v>110.56</v>
     <v>53867070</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>535856</v>
-    <v>1226628</v>
+    <v>993203</v>
+    <v>1252960</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2883,10 +2987,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2913,31 +3017,31 @@
         <v>2018</v>
       </c>
       <c r="F1" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1" s="8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1" s="28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1" s="28">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1" s="28">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1" s="28">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1" s="28">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="21">
@@ -2945,34 +3049,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -2998,49 +3102,49 @@
       <c r="E3" s="1">
         <v>267435000</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>92</v>
+      <c r="F3" s="1">
+        <v>282851000</v>
       </c>
       <c r="G3" s="1">
-        <v>282851000</v>
+        <v>318110000</v>
       </c>
       <c r="H3" s="1">
-        <v>318110000</v>
-      </c>
-      <c r="I3" s="1">
         <v>392155000</v>
       </c>
+      <c r="I3" s="73">
+        <v>578800000</v>
+      </c>
       <c r="J3" s="29">
-        <v>543000000</v>
+        <v>788000000</v>
       </c>
       <c r="K3" s="29">
-        <v>614000000</v>
+        <v>816700000</v>
       </c>
       <c r="L3" s="29">
-        <v>680000000</v>
+        <v>996300000</v>
       </c>
       <c r="M3" s="29">
-        <v>740000000</v>
+        <v>1121000000</v>
       </c>
       <c r="N3" s="29">
-        <v>800000000</v>
+        <v>1205000000</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3055,57 +3159,57 @@
         <f>(E3/D3)-1</f>
         <v>-9.0889554185440424E-3</v>
       </c>
-      <c r="F4" s="15" t="e">
-        <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="F4" s="15">
+        <f>(F3/E3)-1</f>
+        <v>5.7643913474302089E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:N4" si="0">(G3/F3)-1</f>
+        <v>0.12465573747308656</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12465573747308656</v>
+        <v>0.23276539561786813</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23276539561786813</v>
+        <v>0.47594701074830104</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.38465657711874135</v>
+        <f>(J3/I3)-1</f>
+        <v>0.3614374568071872</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13075506445672191</v>
+        <v>3.6421319796954288E-2</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10749185667752448</v>
+        <v>0.21990939145341004</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>8.8235294117646967E-2</v>
+        <v>0.12516310348288662</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1081081081081141E-2</v>
+        <v>7.4933095450490539E-2</v>
       </c>
       <c r="O4" s="17">
-        <f>(I4+H4)/2</f>
-        <v>0.17871056654547735</v>
+        <f>SUM(G4:I4)/3</f>
+        <v>0.27778938127975189</v>
       </c>
       <c r="P4" s="17">
-        <f>(I20+H20)/2</f>
-        <v>0.15151928393476649</v>
+        <f>SUM(G20:I20)/3</f>
+        <v>0.28700146964571227</v>
       </c>
       <c r="Q4" s="17">
-        <f>(I29+H29)/2</f>
-        <v>0.92086424738630845</v>
+        <f>SUM(G29:I29)/3</f>
+        <v>1.2226983514193825</v>
       </c>
       <c r="R4" s="17">
-        <f>(I105+H105)/2</f>
-        <v>-0.35094514615442818</v>
+        <f>SUM(G106:I106)</f>
+        <v>5.114033491291007</v>
       </c>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="18"/>
@@ -3128,17 +3232,18 @@
       <c r="E5" s="1">
         <v>104694000</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>92</v>
+      <c r="F5" s="1">
+        <v>101728000</v>
       </c>
       <c r="G5" s="1">
-        <v>101728000</v>
+        <v>111912000</v>
       </c>
       <c r="H5" s="1">
-        <v>111912000</v>
+        <v>140423000</v>
       </c>
       <c r="I5" s="1">
-        <v>140423000</v>
+        <f>I3-I6</f>
+        <v>188400000</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="20">
@@ -3157,29 +3262,29 @@
       <c r="E6" s="10">
         <v>162741000</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>92</v>
+      <c r="F6" s="10">
+        <v>181123000</v>
       </c>
       <c r="G6" s="10">
-        <v>181123000</v>
+        <v>206198000</v>
       </c>
       <c r="H6" s="10">
-        <v>206198000</v>
+        <v>251732000</v>
       </c>
       <c r="I6" s="10">
-        <v>251732000</v>
+        <v>390400000</v>
       </c>
       <c r="O6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="R6" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19">
@@ -3198,33 +3303,34 @@
       <c r="E7" s="2">
         <v>0.60850000000000004</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>92</v>
+      <c r="F7" s="2">
+        <v>0.64029999999999998</v>
       </c>
       <c r="G7" s="2">
-        <v>0.64029999999999998</v>
+        <v>0.6482</v>
       </c>
       <c r="H7" s="2">
-        <v>0.6482</v>
+        <v>0.64190000000000003</v>
       </c>
       <c r="I7" s="2">
-        <v>0.64190000000000003</v>
+        <f>I6/I3</f>
+        <v>0.67449896337249482</v>
       </c>
       <c r="O7" s="17">
         <f>I7</f>
-        <v>0.64190000000000003</v>
+        <v>0.67449896337249482</v>
       </c>
       <c r="P7" s="21">
         <f>I21</f>
-        <v>0.13930000000000001</v>
+        <v>0.14704042847270216</v>
       </c>
       <c r="Q7" s="21">
         <f>I30</f>
-        <v>5.5500000000000001E-2</v>
+        <v>0.10630615065653075</v>
       </c>
       <c r="R7" s="21">
-        <f>I106/I3</f>
-        <v>3.747242799403297E-2</v>
+        <f>I107/I3</f>
+        <v>0.17304768486523842</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19">
@@ -3253,20 +3359,20 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:I9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:H9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -3277,9 +3383,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="e">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="1"/>
@@ -3290,20 +3396,20 @@
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I9" si="2">I8/I3</f>
+        <v>1.7277125086385625E-9</v>
       </c>
       <c r="O9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19">
@@ -3311,44 +3417,44 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="17">
         <f>I9</f>
-        <v>0</v>
+        <v>1.7277125086385625E-9</v>
       </c>
       <c r="P10" s="21">
         <f>I13</f>
-        <v>0.56587828792186767</v>
+        <v>0.55597788527988945</v>
       </c>
       <c r="Q10" s="21">
         <f>I80</f>
-        <v>5.0097537963305329E-2</v>
+        <v>5.0305805114029024E-2</v>
       </c>
       <c r="R10" s="21">
         <f>I89</f>
-        <v>1.2285958358302202E-2</v>
+        <v>2.9768486523842432E-3</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="19">
@@ -3356,28 +3462,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="20">
@@ -3396,82 +3502,82 @@
       <c r="E12" s="1">
         <v>136579000</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>92</v>
+      <c r="F12" s="1">
+        <v>157155000</v>
       </c>
       <c r="G12" s="1">
-        <v>157155000</v>
+        <v>194157000</v>
       </c>
       <c r="H12" s="1">
-        <v>194157000</v>
+        <v>221912000</v>
       </c>
       <c r="I12" s="1">
-        <v>221912000</v>
+        <v>321800000</v>
       </c>
       <c r="O12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.39055863499344351</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:I13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:I13" si="3">C12/C3</f>
         <v>0.47548645929075173</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48703906805786101</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51069979621216366</v>
       </c>
-      <c r="F13" s="15" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
+        <v>0.55561055113823177</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.55561055113823177</v>
+        <f t="shared" si="3"/>
+        <v>0.61034547797931538</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.61034547797931538</v>
+        <f t="shared" si="3"/>
+        <v>0.56587828792186767</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
-        <v>0.56587828792186767</v>
+        <f t="shared" si="3"/>
+        <v>0.55597788527988945</v>
       </c>
       <c r="O13" s="17">
         <f>I28/I72</f>
-        <v>6.9679831257661737E-2</v>
+        <v>0.14970183715028818</v>
       </c>
       <c r="P13" s="21">
         <f>I28/I54</f>
-        <v>4.4012518397515729E-2</v>
+        <v>0.10330741553489668</v>
       </c>
       <c r="Q13" s="21">
         <f>I22/(I72+I56+I61)</f>
-        <v>6.9324453345131917E-2</v>
+        <v>0.13814375724746389</v>
       </c>
       <c r="R13" s="22">
         <f>I67/I72</f>
-        <v>0.58318209897288664</v>
+        <v>0.44909091351452618</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="19">
@@ -3479,28 +3585,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20">
@@ -3519,29 +3625,29 @@
       <c r="E15" s="1">
         <v>136579000</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>92</v>
+      <c r="F15" s="1">
+        <v>157155000</v>
       </c>
       <c r="G15" s="1">
-        <v>157155000</v>
+        <v>194157000</v>
       </c>
       <c r="H15" s="1">
-        <v>194157000</v>
+        <v>221912000</v>
       </c>
       <c r="I15" s="1">
-        <v>221912000</v>
+        <v>321800000</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P15" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19">
@@ -3560,33 +3666,34 @@
       <c r="E16" s="1">
         <v>241273000</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
+      <c r="F16" s="1">
+        <v>258883000</v>
       </c>
       <c r="G16" s="1">
-        <v>258883000</v>
+        <v>306069000</v>
       </c>
       <c r="H16" s="1">
-        <v>306069000</v>
+        <v>362335000</v>
       </c>
       <c r="I16" s="1">
-        <v>362335000</v>
+        <f>I15+I5</f>
+        <v>510200000</v>
       </c>
       <c r="O16" s="31">
-        <f>(I35+H35)/2</f>
-        <v>2.7545612578283918E-2</v>
-      </c>
-      <c r="P16" s="32">
+        <f>SUM(G35:I35)/3</f>
+        <v>2.8823896859317532E-2</v>
+      </c>
+      <c r="P16" s="71">
         <f>Q101/I3</f>
-        <v>14.962121097525213</v>
-      </c>
-      <c r="Q16" s="32">
+        <v>10.28946658431237</v>
+      </c>
+      <c r="Q16" s="71">
         <f>Q101/I28</f>
-        <v>269.5209278364722</v>
-      </c>
-      <c r="R16" s="33">
-        <f>Q101/I106</f>
-        <v>399.28347050017015</v>
+        <v>96.790886705672037</v>
+      </c>
+      <c r="R16" s="72">
+        <f>Q101/I107</f>
+        <v>59.46029611621406</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19">
@@ -3605,17 +3712,17 @@
       <c r="E17" s="1">
         <v>7024000</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
+      <c r="F17" s="1">
+        <v>6424000</v>
       </c>
       <c r="G17" s="1">
-        <v>6424000</v>
+        <v>3248000</v>
       </c>
       <c r="H17" s="1">
-        <v>3248000</v>
+        <v>2113000</v>
       </c>
       <c r="I17" s="1">
-        <v>2113000</v>
+        <v>2018000</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="20">
@@ -3634,29 +3741,29 @@
       <c r="E18" s="1">
         <v>17861000</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
+      <c r="F18" s="1">
+        <v>22843000</v>
       </c>
       <c r="G18" s="1">
-        <v>22843000</v>
+        <v>25179000</v>
       </c>
       <c r="H18" s="1">
-        <v>25179000</v>
+        <v>27083000</v>
       </c>
       <c r="I18" s="1">
-        <v>27083000</v>
+        <v>22164000</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19">
@@ -3675,53 +3782,53 @@
       <c r="E19" s="10">
         <v>42841000</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>92</v>
+      <c r="F19" s="10">
+        <v>53336000</v>
       </c>
       <c r="G19" s="10">
-        <v>53336000</v>
+        <v>32117000</v>
       </c>
       <c r="H19" s="10">
-        <v>32117000</v>
+        <v>54627000</v>
       </c>
       <c r="I19" s="10">
-        <v>54627000</v>
-      </c>
-      <c r="J19" s="61">
-        <v>115000000</v>
-      </c>
-      <c r="K19" s="61">
-        <v>137000000</v>
-      </c>
-      <c r="L19" s="61">
-        <v>163100000</v>
-      </c>
-      <c r="M19" s="61">
-        <v>163100001</v>
-      </c>
-      <c r="N19" s="61">
-        <v>163100002</v>
-      </c>
-      <c r="O19" s="34">
+        <v>85107000</v>
+      </c>
+      <c r="J19" s="58">
+        <v>147200000</v>
+      </c>
+      <c r="K19" s="58">
+        <v>170200000</v>
+      </c>
+      <c r="L19" s="58">
+        <v>214100000</v>
+      </c>
+      <c r="M19" s="58">
+        <v>268900000</v>
+      </c>
+      <c r="N19" s="58">
+        <v>301200000</v>
+      </c>
+      <c r="O19" s="32">
         <f>I40-I56-I61</f>
-        <v>-73648000</v>
-      </c>
-      <c r="P19" s="32">
+        <v>38519000</v>
+      </c>
+      <c r="P19" s="71">
         <f>Q101/J3</f>
-        <v>10.805654878453039</v>
-      </c>
-      <c r="Q19" s="32">
+        <v>7.5577960139593907</v>
+      </c>
+      <c r="Q19" s="71">
         <f>Q101/J28</f>
-        <v>75.223982038461543</v>
-      </c>
-      <c r="R19" s="33">
+        <v>58.444978007850835</v>
+      </c>
+      <c r="R19" s="72">
         <f>Q101/J106</f>
-        <v>67.53277933955502</v>
+        <v>96.012240387560652</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3736,44 +3843,44 @@
         <f>(E19/D19)-1</f>
         <v>-4.7024802580358127E-2</v>
       </c>
-      <c r="F20" s="15" t="e">
-        <f t="shared" ref="F20:I20" si="3">(F19/E19)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="F20" s="15">
+        <f>(F19/E19)-1</f>
+        <v>0.24497560747881697</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" ref="G20:I20" si="4">(G19/F19)-1</f>
+        <v>-0.39783635818209084</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
-        <v>-0.39783635818209084</v>
+        <f t="shared" si="4"/>
+        <v>0.70087492605162383</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
-        <v>0.70087492605162383</v>
+        <f t="shared" si="4"/>
+        <v>0.55796584106760383</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" ref="J20" si="4">(J19/I19)-1</f>
-        <v>1.1051860801435187</v>
+        <f>(J19/I19)-1</f>
+        <v>0.72958746049091139</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="5">(K19/J19)-1</f>
-        <v>0.19130434782608696</v>
+        <v>0.15625</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="6">(L19/K19)-1</f>
-        <v>0.19051094890510956</v>
+        <v>0.25793184488836673</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="7">(M19/L19)-1</f>
-        <v>6.1312077637154516E-9</v>
+        <v>0.25595516113965444</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="8">(N19/M19)-1</f>
-        <v>6.1312077637154516E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="19">
+        <v>0.12011900334696923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="20">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3789,37 +3896,44 @@
       <c r="E21" s="2">
         <v>0.16020000000000001</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>92</v>
+      <c r="F21" s="2">
+        <v>0.18859999999999999</v>
       </c>
       <c r="G21" s="2">
-        <v>0.18859999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H21" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>0.13930000000000001</v>
-      </c>
-      <c r="J21" s="62">
+        <f>I19/I3</f>
+        <v>0.14704042847270216</v>
+      </c>
+      <c r="J21" s="59">
         <f>J19/J3</f>
-        <v>0.21178637200736647</v>
-      </c>
-      <c r="K21" s="62">
+        <v>0.18680203045685279</v>
+      </c>
+      <c r="K21" s="59">
         <f t="shared" ref="K21:L21" si="9">K19/K3</f>
-        <v>0.22312703583061888</v>
-      </c>
-      <c r="L21" s="62">
+        <v>0.20839965715685074</v>
+      </c>
+      <c r="L21" s="59">
         <f t="shared" si="9"/>
-        <v>0.2398529411764706</v>
-      </c>
-      <c r="M21" s="62">
+        <v>0.21489511191408212</v>
+      </c>
+      <c r="M21" s="59">
         <f t="shared" ref="M21:N21" si="10">M19/M3</f>
-        <v>0.22040540675675677</v>
-      </c>
-      <c r="N21" s="62">
+        <v>0.23987511150758251</v>
+      </c>
+      <c r="N21" s="59">
         <f t="shared" si="10"/>
-        <v>0.20387500250000001</v>
+        <v>0.2499585062240664</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19">
@@ -3838,17 +3952,25 @@
       <c r="E22" s="10">
         <v>26162000</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>92</v>
+      <c r="F22" s="10">
+        <v>29950000</v>
       </c>
       <c r="G22" s="10">
-        <v>29950000</v>
+        <v>9400000</v>
       </c>
       <c r="H22" s="10">
-        <v>9400000</v>
+        <v>29770000</v>
       </c>
       <c r="I22" s="10">
-        <v>29770000</v>
+        <v>68143000</v>
+      </c>
+      <c r="Q22" s="69">
+        <f>(-1*I98)/Q101</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="70">
+        <f>I107/Q101</f>
+        <v>1.6817945172111461E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19">
@@ -3867,17 +3989,18 @@
       <c r="E23" s="2">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>92</v>
+      <c r="F23" s="2">
+        <v>0.10589999999999999</v>
       </c>
       <c r="G23" s="2">
-        <v>0.10589999999999999</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="H23" s="2">
-        <v>2.9499999999999998E-2</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="I23" s="2">
-        <v>7.5899999999999995E-2</v>
+        <f>I22/I3</f>
+        <v>0.11773151347615757</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="19">
@@ -3896,14 +4019,14 @@
       <c r="E24" s="1">
         <v>-8206000</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
+      <c r="F24" s="1">
+        <v>-5881000</v>
       </c>
       <c r="G24" s="1">
-        <v>-5881000</v>
+        <v>-5710000</v>
       </c>
       <c r="H24" s="1">
-        <v>-5710000</v>
+        <v>-4339000</v>
       </c>
       <c r="I24" s="1">
         <v>-4339000</v>
@@ -3925,17 +4048,17 @@
       <c r="E25" s="10">
         <v>17956000</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>92</v>
+      <c r="F25" s="10">
+        <v>24069000</v>
       </c>
       <c r="G25" s="10">
-        <v>24069000</v>
+        <v>3690000</v>
       </c>
       <c r="H25" s="10">
-        <v>3690000</v>
+        <v>25431000</v>
       </c>
       <c r="I25" s="10">
-        <v>25431000</v>
+        <v>64074000</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="19">
@@ -3954,17 +4077,18 @@
       <c r="E26" s="2">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>92</v>
+      <c r="F26" s="2">
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>8.5099999999999995E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="H26" s="2">
-        <v>1.1599999999999999E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
       <c r="I26" s="2">
-        <v>6.4799999999999996E-2</v>
+        <f>I25/I3</f>
+        <v>0.11070145127850725</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="19">
@@ -3983,17 +4107,17 @@
       <c r="E27" s="1">
         <v>2431000</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
+      <c r="F27" s="1">
+        <v>6185000</v>
       </c>
       <c r="G27" s="1">
-        <v>6185000</v>
+        <v>-2542000</v>
       </c>
       <c r="H27" s="1">
-        <v>-2542000</v>
+        <v>3661000</v>
       </c>
       <c r="I27" s="1">
-        <v>3661000</v>
+        <v>2544000</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="20" thickBot="1">
@@ -4012,37 +4136,37 @@
       <c r="E28" s="11">
         <v>15525000</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>92</v>
+      <c r="F28" s="11">
+        <v>17884000</v>
       </c>
       <c r="G28" s="11">
-        <v>17884000</v>
+        <v>6232000</v>
       </c>
       <c r="H28" s="11">
-        <v>6232000</v>
+        <v>21770000</v>
       </c>
       <c r="I28" s="11">
-        <v>21770000</v>
-      </c>
-      <c r="J28" s="63">
-        <v>78000000</v>
-      </c>
-      <c r="K28" s="63">
-        <v>95100000</v>
-      </c>
-      <c r="L28" s="63">
-        <v>114100000</v>
-      </c>
-      <c r="M28" s="63">
-        <v>114100001</v>
-      </c>
-      <c r="N28" s="63">
-        <v>114100002</v>
+        <v>61530000</v>
+      </c>
+      <c r="J28" s="60">
+        <v>101900000</v>
+      </c>
+      <c r="K28" s="60">
+        <v>121700000</v>
+      </c>
+      <c r="L28" s="60">
+        <v>154900000</v>
+      </c>
+      <c r="M28" s="60">
+        <v>196600000</v>
+      </c>
+      <c r="N28" s="60">
+        <v>221000000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4057,41 +4181,41 @@
         <f>(E28/D28)-1</f>
         <v>-0.53622106049290519</v>
       </c>
-      <c r="F29" s="15" t="e">
-        <f t="shared" ref="F29:I29" si="11">(F28/E28)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="15" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+      <c r="F29" s="15">
+        <f>(F28/E28)-1</f>
+        <v>0.15194847020933988</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" ref="G29:I29" si="11">(G28/F28)-1</f>
+        <v>-0.65153209572802506</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="11"/>
-        <v>-0.65153209572802506</v>
+        <v>2.493260590500642</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="11"/>
-        <v>2.493260590500642</v>
+        <v>1.8263665594855305</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
-        <v>2.5829122645842904</v>
+        <f>(J28/I28)-1</f>
+        <v>0.65610271412319188</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
-        <v>0.21923076923076934</v>
+        <f t="shared" ref="K29" si="12">(K28/J28)-1</f>
+        <v>0.19430814524043183</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
-        <v>0.19978969505783395</v>
+        <f t="shared" ref="L29" si="13">(L28/K28)-1</f>
+        <v>0.27280197206244861</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
-        <v>8.764241998804323E-9</v>
+        <f t="shared" ref="M29" si="14">(M28/L28)-1</f>
+        <v>0.26920593931568759</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
-        <v>8.7642417767597181E-9</v>
+        <f t="shared" ref="N29" si="15">(N28/M28)-1</f>
+        <v>0.12410986775178023</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19">
@@ -4110,37 +4234,38 @@
       <c r="E30" s="2">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
+      <c r="F30" s="2">
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="G30" s="2">
-        <v>6.3200000000000006E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="H30" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="I30" s="2">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="J30" s="64">
+        <f>I28/I3</f>
+        <v>0.10630615065653075</v>
+      </c>
+      <c r="J30" s="61">
         <f>J28/J3</f>
-        <v>0.143646408839779</v>
-      </c>
-      <c r="K30" s="64">
-        <f t="shared" ref="K30:L30" si="17">K28/K3</f>
-        <v>0.15488599348534202</v>
-      </c>
-      <c r="L30" s="64">
+        <v>0.12931472081218273</v>
+      </c>
+      <c r="K30" s="61">
+        <f t="shared" ref="K30:L30" si="16">K28/K3</f>
+        <v>0.14901432594587977</v>
+      </c>
+      <c r="L30" s="61">
+        <f t="shared" si="16"/>
+        <v>0.15547525845628826</v>
+      </c>
+      <c r="M30" s="61">
+        <f t="shared" ref="M30:N30" si="17">M28/M3</f>
+        <v>0.17537912578055309</v>
+      </c>
+      <c r="N30" s="61">
         <f t="shared" si="17"/>
-        <v>0.16779411764705882</v>
-      </c>
-      <c r="M30" s="64">
-        <f t="shared" ref="M30:N30" si="18">M28/M3</f>
-        <v>0.15418919054054053</v>
-      </c>
-      <c r="N30" s="64">
-        <f t="shared" si="18"/>
-        <v>0.14262500249999999</v>
+        <v>0.183402489626556</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19">
@@ -4159,17 +4284,32 @@
       <c r="E31" s="12">
         <v>0.33</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>92</v>
+      <c r="F31" s="12">
+        <v>0.37</v>
       </c>
       <c r="G31" s="12">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="12">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
       <c r="I31" s="12">
-        <v>0.43</v>
+        <v>1.17</v>
+      </c>
+      <c r="J31" s="74">
+        <v>1.89</v>
+      </c>
+      <c r="K31" s="74">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L31" s="74">
+        <v>2.88</v>
+      </c>
+      <c r="M31" s="74">
+        <v>3.65</v>
+      </c>
+      <c r="N31" s="74">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="19">
@@ -4188,17 +4328,17 @@
       <c r="E32" s="12">
         <v>0.32</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>92</v>
+      <c r="F32" s="12">
+        <v>0.35</v>
       </c>
       <c r="G32" s="12">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="H32" s="12">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="I32" s="12">
-        <v>0.41</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19">
@@ -4217,17 +4357,17 @@
       <c r="E33" s="1">
         <v>46828798</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>92</v>
+      <c r="F33" s="1">
+        <v>48498813</v>
       </c>
       <c r="G33" s="1">
-        <v>48498813</v>
+        <v>49377410</v>
       </c>
       <c r="H33" s="1">
-        <v>49377410</v>
+        <v>50940808</v>
       </c>
       <c r="I33" s="1">
-        <v>50940808</v>
+        <v>52475000</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="19">
@@ -4246,22 +4386,22 @@
       <c r="E34" s="1">
         <v>49268616</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>92</v>
+      <c r="F34" s="1">
+        <v>50817143</v>
       </c>
       <c r="G34" s="1">
-        <v>50817143</v>
+        <v>51994145</v>
       </c>
       <c r="H34" s="1">
-        <v>51994145</v>
+        <v>53654303</v>
       </c>
       <c r="I34" s="1">
-        <v>53654303</v>
+        <v>55338000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4269,28 +4409,28 @@
         <v>-0.70663409633503016</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:I35" si="19">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="18">(D34-C34)/C34</f>
         <v>2.9166021035607819</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2.1497219287636813E-3</v>
       </c>
-      <c r="F35" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="23" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+      <c r="F35" s="23">
+        <f>(F34-E34)/F34</f>
+        <v>3.0472531680893592E-2</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="18"/>
+        <v>2.3161514609351414E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="19"/>
-        <v>2.3161514609351414E-2</v>
+        <f t="shared" si="18"/>
+        <v>3.1929710547216425E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="19"/>
-        <v>3.1929710547216425E-2</v>
+        <f t="shared" si="18"/>
+        <v>3.138046542138475E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19">
@@ -4298,28 +4438,28 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="21">
@@ -4327,28 +4467,28 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19">
@@ -4367,17 +4507,17 @@
       <c r="E38" s="1">
         <v>51205000</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>92</v>
+      <c r="F38" s="1">
+        <v>46167000</v>
       </c>
       <c r="G38" s="1">
-        <v>46167000</v>
+        <v>57768000</v>
       </c>
       <c r="H38" s="1">
-        <v>57768000</v>
+        <v>43353000</v>
       </c>
       <c r="I38" s="1">
-        <v>43353000</v>
+        <v>120778000</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19">
@@ -4385,28 +4525,28 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19">
@@ -4425,17 +4565,17 @@
       <c r="E40" s="1">
         <v>51205000</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>92</v>
+      <c r="F40" s="1">
+        <v>46167000</v>
       </c>
       <c r="G40" s="1">
-        <v>46167000</v>
+        <v>57768000</v>
       </c>
       <c r="H40" s="1">
-        <v>57768000</v>
+        <v>43353000</v>
       </c>
       <c r="I40" s="1">
-        <v>43353000</v>
+        <v>120778000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19">
@@ -4454,17 +4594,17 @@
       <c r="E41" s="1">
         <v>36724000</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>92</v>
+      <c r="F41" s="1">
+        <v>29721000</v>
       </c>
       <c r="G41" s="1">
-        <v>29721000</v>
+        <v>40185000</v>
       </c>
       <c r="H41" s="1">
-        <v>40185000</v>
+        <v>45567000</v>
       </c>
       <c r="I41" s="1">
-        <v>45567000</v>
+        <v>67928000</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19">
@@ -4483,17 +4623,17 @@
       <c r="E42" s="1">
         <v>46341000</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>92</v>
+      <c r="F42" s="1">
+        <v>46209000</v>
       </c>
       <c r="G42" s="1">
-        <v>46209000</v>
+        <v>56810000</v>
       </c>
       <c r="H42" s="1">
-        <v>56810000</v>
+        <v>84498000</v>
       </c>
       <c r="I42" s="1">
-        <v>84498000</v>
+        <v>81323000</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19">
@@ -4512,17 +4652,17 @@
       <c r="E43" s="1">
         <v>7473000</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>92</v>
+      <c r="F43" s="1">
+        <v>10263000</v>
       </c>
       <c r="G43" s="1">
-        <v>10263000</v>
+        <v>15381000</v>
       </c>
       <c r="H43" s="1">
-        <v>15381000</v>
+        <v>19611000</v>
       </c>
       <c r="I43" s="1">
-        <v>19611000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19">
@@ -4541,17 +4681,17 @@
       <c r="E44" s="10">
         <v>141743000</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>92</v>
+      <c r="F44" s="10">
+        <v>132360000</v>
       </c>
       <c r="G44" s="10">
-        <v>132360000</v>
+        <v>170144000</v>
       </c>
       <c r="H44" s="10">
-        <v>170144000</v>
+        <v>193029000</v>
       </c>
       <c r="I44" s="10">
-        <v>193029000</v>
+        <v>303325000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="19">
@@ -4570,17 +4710,17 @@
       <c r="E45" s="1">
         <v>21804000</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>92</v>
+      <c r="F45" s="1">
+        <v>17171000</v>
       </c>
       <c r="G45" s="1">
-        <v>17171000</v>
+        <v>13770000</v>
       </c>
       <c r="H45" s="1">
-        <v>13770000</v>
+        <v>10577000</v>
       </c>
       <c r="I45" s="1">
-        <v>10577000</v>
+        <v>7874000</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19">
@@ -4599,11 +4739,11 @@
       <c r="E46" s="1">
         <v>157264000</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>92</v>
+      <c r="F46" s="1">
+        <v>171321000</v>
       </c>
       <c r="G46" s="1">
-        <v>171321000</v>
+        <v>171620000</v>
       </c>
       <c r="H46" s="1">
         <v>171620000</v>
@@ -4628,17 +4768,17 @@
       <c r="E47" s="1">
         <v>98773000</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>92</v>
+      <c r="F47" s="1">
+        <v>102410000</v>
       </c>
       <c r="G47" s="1">
-        <v>102410000</v>
+        <v>94286000</v>
       </c>
       <c r="H47" s="1">
-        <v>94286000</v>
+        <v>86163000</v>
       </c>
       <c r="I47" s="1">
-        <v>86163000</v>
+        <v>78041000</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19">
@@ -4657,17 +4797,18 @@
       <c r="E48" s="1">
         <v>256037000</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>92</v>
+      <c r="F48" s="1">
+        <v>273731000</v>
       </c>
       <c r="G48" s="1">
-        <v>273731000</v>
+        <v>265906000</v>
       </c>
       <c r="H48" s="1">
-        <v>265906000</v>
+        <v>257783000</v>
       </c>
       <c r="I48" s="1">
-        <v>257783000</v>
+        <f>I46+I47</f>
+        <v>249661000</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19">
@@ -4675,10 +4816,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1">
         <v>2875000</v>
@@ -4686,8 +4827,8 @@
       <c r="E49" s="1">
         <v>2875000</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>92</v>
+      <c r="F49" s="1">
+        <v>2875000</v>
       </c>
       <c r="G49" s="1">
         <v>2875000</v>
@@ -4707,25 +4848,25 @@
         <v>262000</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19">
@@ -4744,17 +4885,17 @@
       <c r="E51" s="1">
         <v>13397000</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>92</v>
+      <c r="F51" s="1">
+        <v>26967000</v>
       </c>
       <c r="G51" s="1">
-        <v>26967000</v>
+        <v>34698000</v>
       </c>
       <c r="H51" s="1">
-        <v>34698000</v>
+        <v>30368000</v>
       </c>
       <c r="I51" s="1">
-        <v>30368000</v>
+        <v>31866000</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19">
@@ -4773,17 +4914,17 @@
       <c r="E52" s="1">
         <v>294113000</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>92</v>
+      <c r="F52" s="1">
+        <v>320744000</v>
       </c>
       <c r="G52" s="1">
-        <v>320744000</v>
+        <v>317249000</v>
       </c>
       <c r="H52" s="1">
-        <v>317249000</v>
+        <v>301603000</v>
       </c>
       <c r="I52" s="1">
-        <v>301603000</v>
+        <v>292673000</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19">
@@ -4791,28 +4932,28 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="20" thickBot="1">
@@ -4831,17 +4972,17 @@
       <c r="E54" s="11">
         <v>435856000</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>92</v>
+      <c r="F54" s="11">
+        <v>453104000</v>
       </c>
       <c r="G54" s="11">
-        <v>453104000</v>
+        <v>487393000</v>
       </c>
       <c r="H54" s="11">
-        <v>487393000</v>
+        <v>494632000</v>
       </c>
       <c r="I54" s="11">
-        <v>494632000</v>
+        <v>595601000</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="20" thickTop="1">
@@ -4860,17 +5001,17 @@
       <c r="E55" s="1">
         <v>20483000</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>92</v>
+      <c r="F55" s="1">
+        <v>12390000</v>
       </c>
       <c r="G55" s="1">
-        <v>12390000</v>
+        <v>15699000</v>
       </c>
       <c r="H55" s="1">
-        <v>15699000</v>
+        <v>19227000</v>
       </c>
       <c r="I55" s="1">
-        <v>19227000</v>
+        <v>31427000</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19">
@@ -4889,14 +5030,14 @@
       <c r="E56" s="1">
         <v>9861000</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>92</v>
+      <c r="F56" s="1">
+        <v>15651000</v>
       </c>
       <c r="G56" s="1">
-        <v>15651000</v>
+        <v>20573000</v>
       </c>
       <c r="H56" s="1">
-        <v>20573000</v>
+        <v>10177000</v>
       </c>
       <c r="I56" s="1">
         <v>10177000</v>
@@ -4907,7 +5048,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>3705000</v>
@@ -4919,16 +5060,16 @@
         <v>71000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19">
@@ -4936,28 +5077,28 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19">
@@ -4976,14 +5117,14 @@
       <c r="E59" s="1">
         <v>12600000</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>92</v>
+      <c r="F59" s="1">
+        <v>23082000</v>
       </c>
       <c r="G59" s="1">
-        <v>23082000</v>
+        <v>37059000</v>
       </c>
       <c r="H59" s="1">
-        <v>37059000</v>
+        <v>35613000</v>
       </c>
       <c r="I59" s="1">
         <v>35613000</v>
@@ -5005,17 +5146,17 @@
       <c r="E60" s="10">
         <v>43015000</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>92</v>
+      <c r="F60" s="10">
+        <v>51123000</v>
       </c>
       <c r="G60" s="10">
-        <v>51123000</v>
+        <v>73331000</v>
       </c>
       <c r="H60" s="10">
-        <v>73331000</v>
+        <v>65017000</v>
       </c>
       <c r="I60" s="10">
-        <v>65017000</v>
+        <v>107976000</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="19">
@@ -5034,17 +5175,17 @@
       <c r="E61" s="1">
         <v>140523000</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>92</v>
+      <c r="F61" s="1">
+        <v>137327000</v>
       </c>
       <c r="G61" s="1">
-        <v>137327000</v>
+        <v>130339000</v>
       </c>
       <c r="H61" s="1">
-        <v>130339000</v>
+        <v>106824000</v>
       </c>
       <c r="I61" s="1">
-        <v>106824000</v>
+        <v>72082000</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="19">
@@ -5052,28 +5193,28 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19">
@@ -5092,17 +5233,17 @@
       <c r="E63" s="1">
         <v>20217000</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>92</v>
+      <c r="F63" s="1">
+        <v>21892000</v>
       </c>
       <c r="G63" s="1">
-        <v>21892000</v>
+        <v>13479000</v>
       </c>
       <c r="H63" s="1">
-        <v>13479000</v>
+        <v>9593000</v>
       </c>
       <c r="I63" s="1">
-        <v>9593000</v>
+        <v>3742000</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19">
@@ -5121,14 +5262,14 @@
       <c r="E64" s="1">
         <v>2770000</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>92</v>
+      <c r="F64" s="1">
+        <v>591000</v>
       </c>
       <c r="G64" s="1">
-        <v>591000</v>
+        <v>598000</v>
       </c>
       <c r="H64" s="1">
-        <v>598000</v>
+        <v>769000</v>
       </c>
       <c r="I64" s="1">
         <v>769000</v>
@@ -5150,17 +5291,17 @@
       <c r="E65" s="1">
         <v>163510000</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>92</v>
+      <c r="F65" s="1">
+        <v>159810000</v>
       </c>
       <c r="G65" s="1">
-        <v>159810000</v>
+        <v>144416000</v>
       </c>
       <c r="H65" s="1">
-        <v>144416000</v>
+        <v>117186000</v>
       </c>
       <c r="I65" s="1">
-        <v>117186000</v>
+        <v>76608000</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="19">
@@ -5168,28 +5309,28 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="19">
@@ -5208,17 +5349,17 @@
       <c r="E67" s="10">
         <v>206525000</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>92</v>
+      <c r="F67" s="10">
+        <v>210933000</v>
       </c>
       <c r="G67" s="10">
-        <v>210933000</v>
+        <v>217747000</v>
       </c>
       <c r="H67" s="10">
-        <v>217747000</v>
+        <v>182203000</v>
       </c>
       <c r="I67" s="10">
-        <v>182203000</v>
+        <v>184584000</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="19">
@@ -5226,7 +5367,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>438000</v>
@@ -5237,17 +5378,17 @@
       <c r="E68" s="1">
         <v>478000</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>92</v>
+      <c r="F68" s="1">
+        <v>489000</v>
       </c>
       <c r="G68" s="1">
-        <v>489000</v>
+        <v>504000</v>
       </c>
       <c r="H68" s="1">
-        <v>504000</v>
+        <v>515000</v>
       </c>
       <c r="I68" s="1">
-        <v>515000</v>
+        <v>535000</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="19">
@@ -5266,17 +5407,17 @@
       <c r="E69" s="1">
         <v>-511501000</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>92</v>
+      <c r="F69" s="1">
+        <v>-511531000</v>
       </c>
       <c r="G69" s="1">
-        <v>-511531000</v>
+        <v>-505299000</v>
       </c>
       <c r="H69" s="1">
-        <v>-505299000</v>
+        <v>-483529000</v>
       </c>
       <c r="I69" s="1">
-        <v>-483529000</v>
+        <v>-421999000</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="19">
@@ -5296,16 +5437,16 @@
         <v>-17260000</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="19">
@@ -5324,17 +5465,17 @@
       <c r="E71" s="1">
         <v>757614000</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>92</v>
+      <c r="F71" s="1">
+        <v>753213000</v>
       </c>
       <c r="G71" s="1">
-        <v>753213000</v>
+        <v>774441000</v>
       </c>
       <c r="H71" s="1">
-        <v>774441000</v>
+        <v>795443000</v>
       </c>
       <c r="I71" s="1">
-        <v>795443000</v>
+        <v>832481000</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="19">
@@ -5353,17 +5494,17 @@
       <c r="E72" s="10">
         <v>229331000</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>92</v>
+      <c r="F72" s="10">
+        <v>242171000</v>
       </c>
       <c r="G72" s="10">
-        <v>242171000</v>
+        <v>269646000</v>
       </c>
       <c r="H72" s="10">
-        <v>269646000</v>
+        <v>312429000</v>
       </c>
       <c r="I72" s="10">
-        <v>312429000</v>
+        <v>411017000</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="20" thickBot="1">
@@ -5382,17 +5523,17 @@
       <c r="E73" s="11">
         <v>435856000</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>92</v>
+      <c r="F73" s="11">
+        <v>453104000</v>
       </c>
       <c r="G73" s="11">
-        <v>453104000</v>
+        <v>487393000</v>
       </c>
       <c r="H73" s="11">
-        <v>487393000</v>
+        <v>494632000</v>
       </c>
       <c r="I73" s="11">
-        <v>494632000</v>
+        <v>595601000</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="20" thickTop="1">
@@ -5400,28 +5541,28 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="21">
@@ -5429,29 +5570,27 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:17" ht="19">
       <c r="A76" s="5" t="s">
@@ -5469,17 +5608,17 @@
       <c r="E76" s="1">
         <v>15525000</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>92</v>
+      <c r="F76" s="1">
+        <v>17884000</v>
       </c>
       <c r="G76" s="1">
-        <v>17884000</v>
+        <v>6232000</v>
       </c>
       <c r="H76" s="1">
-        <v>6232000</v>
+        <v>21770000</v>
       </c>
       <c r="I76" s="1">
-        <v>21770000</v>
+        <v>61530000</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="19">
@@ -5498,17 +5637,17 @@
       <c r="E77" s="1">
         <v>17861000</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>92</v>
+      <c r="F77" s="1">
+        <v>22843000</v>
       </c>
       <c r="G77" s="1">
-        <v>22843000</v>
+        <v>25179000</v>
       </c>
       <c r="H77" s="1">
-        <v>25179000</v>
+        <v>27083000</v>
       </c>
       <c r="I77" s="1">
-        <v>27083000</v>
+        <v>22164000</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="19">
@@ -5527,17 +5666,17 @@
       <c r="E78" s="1">
         <v>-939000</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>92</v>
+      <c r="F78" s="1">
+        <v>2443000</v>
       </c>
       <c r="G78" s="1">
-        <v>2443000</v>
+        <v>-8584000</v>
       </c>
       <c r="H78" s="1">
-        <v>-8584000</v>
+        <v>-3701000</v>
       </c>
       <c r="I78" s="1">
-        <v>-3701000</v>
+        <v>-6401000</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="19">
@@ -5556,54 +5695,54 @@
       <c r="E79" s="1">
         <v>16821000</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>92</v>
+      <c r="F79" s="1">
+        <v>15488000</v>
       </c>
       <c r="G79" s="1">
-        <v>15488000</v>
+        <v>19682000</v>
       </c>
       <c r="H79" s="1">
-        <v>19682000</v>
+        <v>19646000</v>
       </c>
       <c r="I79" s="1">
-        <v>19646000</v>
+        <v>29117000</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="19">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:I80" si="20">B79/B3</f>
+        <f t="shared" ref="B80:I80" si="19">B79/B3</f>
         <v>2.6278256962693233E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.1141235456315586E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.9924413089874317E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.289752650176679E-2</v>
       </c>
-      <c r="F80" s="15" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
+      <c r="F80" s="15">
+        <f t="shared" si="19"/>
+        <v>5.4756744717183253E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="20"/>
-        <v>5.4756744717183253E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.1871679607682875E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="20"/>
-        <v>6.1871679607682875E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.0097537963305329E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="20"/>
-        <v>5.0097537963305329E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.0305805114029024E-2</v>
       </c>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
@@ -5630,17 +5769,17 @@
       <c r="E81" s="1">
         <v>5046000</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>92</v>
+      <c r="F81" s="1">
+        <v>-9983000</v>
       </c>
       <c r="G81" s="1">
-        <v>-9983000</v>
+        <v>-16905000</v>
       </c>
       <c r="H81" s="1">
-        <v>-16905000</v>
+        <v>-46685000</v>
       </c>
       <c r="I81" s="1">
-        <v>-46685000</v>
+        <v>-5228000</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="19">
@@ -5659,17 +5798,17 @@
       <c r="E82" s="1">
         <v>7649000</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>92</v>
+      <c r="F82" s="1">
+        <v>2504000</v>
       </c>
       <c r="G82" s="1">
-        <v>2504000</v>
+        <v>-10529000</v>
       </c>
       <c r="H82" s="1">
-        <v>-10529000</v>
+        <v>-5597000</v>
       </c>
       <c r="I82" s="1">
-        <v>-5597000</v>
+        <v>67928000</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="21">
@@ -5688,22 +5827,22 @@
       <c r="E83" s="1">
         <v>16338000</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>92</v>
+      <c r="F83" s="1">
+        <v>-435000</v>
       </c>
       <c r="G83" s="1">
-        <v>-435000</v>
+        <v>-10937000</v>
       </c>
       <c r="H83" s="1">
-        <v>-10937000</v>
+        <v>-27655000</v>
       </c>
       <c r="I83" s="1">
-        <v>-27655000</v>
-      </c>
-      <c r="P83" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q83" s="69"/>
+        <v>81323000</v>
+      </c>
+      <c r="P83" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" s="66"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5716,27 +5855,27 @@
         <v>43144000</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1498000</v>
       </c>
       <c r="I84" s="1">
-        <v>1498000</v>
-      </c>
-      <c r="P84" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q84" s="71"/>
+        <v>31427000</v>
+      </c>
+      <c r="P84" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q84" s="68"/>
     </row>
     <row r="85" spans="1:17" ht="20">
       <c r="A85" s="5" t="s">
@@ -5746,32 +5885,32 @@
         <v>-10000</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q85" s="25">
         <f>I17</f>
-        <v>2113000</v>
+        <v>2018000</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="20">
@@ -5790,20 +5929,20 @@
       <c r="E86" s="1">
         <v>1268000</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>92</v>
+      <c r="F86" s="1">
+        <v>-4362000</v>
       </c>
       <c r="G86" s="1">
-        <v>-4362000</v>
+        <v>3871000</v>
       </c>
       <c r="H86" s="1">
-        <v>3871000</v>
+        <v>1400000</v>
       </c>
       <c r="I86" s="1">
         <v>1400000</v>
       </c>
       <c r="P86" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q86" s="25">
         <f>I56</f>
@@ -5826,24 +5965,24 @@
       <c r="E87" s="10">
         <v>55582000</v>
       </c>
-      <c r="F87" s="10" t="s">
-        <v>92</v>
+      <c r="F87" s="10">
+        <v>44313000</v>
       </c>
       <c r="G87" s="10">
-        <v>44313000</v>
+        <v>29475000</v>
       </c>
       <c r="H87" s="10">
-        <v>29475000</v>
+        <v>19513000</v>
       </c>
       <c r="I87" s="10">
-        <v>19513000</v>
+        <v>101883000</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q87" s="25">
         <f>I61</f>
-        <v>106824000</v>
+        <v>72082000</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="20">
@@ -5862,68 +6001,68 @@
       <c r="E88" s="1">
         <v>-8872000</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>92</v>
+      <c r="F88" s="1">
+        <v>-9422000</v>
       </c>
       <c r="G88" s="1">
-        <v>-9422000</v>
+        <v>-6474000</v>
       </c>
       <c r="H88" s="1">
-        <v>-6474000</v>
+        <v>-4818000</v>
       </c>
       <c r="I88" s="1">
-        <v>-4818000</v>
-      </c>
-      <c r="P88" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q88" s="36">
+        <v>-1723000</v>
+      </c>
+      <c r="P88" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q88" s="34">
         <f>Q85/(Q86+Q87)</f>
-        <v>1.8059674703635013E-2</v>
+        <v>2.4532270025164421E-2</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:I89" si="20">(-1*B88)/B3</f>
+        <v>5.2984906981239518E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="20"/>
+        <v>4.0175634999803977E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="20"/>
+        <v>2.7952335783732511E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="20"/>
+        <v>3.3174416213285471E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="20"/>
+        <v>3.331082442699513E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="20"/>
+        <v>2.0351450756027789E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="20"/>
+        <v>1.2285958358302202E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="20"/>
+        <v>2.9768486523842432E-3</v>
+      </c>
+      <c r="P89" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:I89" si="21">(-1*B88)/B3</f>
-        <v>5.2984906981239518E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="21"/>
-        <v>4.0175634999803977E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="21"/>
-        <v>2.7952335783732511E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="21"/>
-        <v>3.3174416213285471E-2</v>
-      </c>
-      <c r="F89" s="15" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="21"/>
-        <v>3.331082442699513E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="21"/>
-        <v>2.0351450756027789E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="21"/>
-        <v>1.2285958358302202E-2</v>
-      </c>
-      <c r="P89" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="Q89" s="25">
         <f>I27</f>
-        <v>3661000</v>
+        <v>2544000</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="20">
@@ -5931,35 +6070,35 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="1">
+        <v>91</v>
+      </c>
+      <c r="F90" s="1">
         <v>-25923000</v>
       </c>
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="24" t="s">
         <v>19</v>
       </c>
       <c r="Q90" s="25">
         <f>I25</f>
-        <v>25431000</v>
+        <v>64074000</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20">
@@ -5967,35 +6106,35 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-2875000</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P91" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q91" s="36">
+        <v>91</v>
+      </c>
+      <c r="P91" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q91" s="34">
         <f>Q89/Q90</f>
-        <v>0.14395816129920175</v>
+        <v>3.9704092143459123E-2</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="20">
@@ -6003,35 +6142,35 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P92" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q92" s="38">
+        <v>91</v>
+      </c>
+      <c r="P92" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q92" s="36">
         <f>Q88*(1-Q91)</f>
-        <v>1.5459837139638008E-2</v>
+        <v>2.3558238515597071E-2</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="19">
@@ -6045,27 +6184,27 @@
         <v>84000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P93" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q93" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="P93" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q93" s="68"/>
     </row>
     <row r="94" spans="1:17" ht="20">
       <c r="A94" s="6" t="s">
@@ -6083,23 +6222,24 @@
       <c r="E94" s="10">
         <v>-8872000</v>
       </c>
-      <c r="F94" s="10" t="s">
-        <v>92</v>
+      <c r="F94" s="10">
+        <v>-35345000</v>
       </c>
       <c r="G94" s="10">
-        <v>-35345000</v>
+        <v>-6474000</v>
       </c>
       <c r="H94" s="10">
-        <v>-6474000</v>
+        <v>-4818000</v>
       </c>
       <c r="I94" s="10">
-        <v>-4818000</v>
+        <v>-1723000</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q94" s="39">
-        <v>4.095E-2</v>
+        <v>128</v>
+      </c>
+      <c r="Q94" s="75">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7679999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6118,24 +6258,24 @@
       <c r="E95" s="1">
         <v>-10250000</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>92</v>
+      <c r="F95" s="1">
+        <v>-9488000</v>
       </c>
       <c r="G95" s="1">
-        <v>-9488000</v>
+        <v>-31756000</v>
       </c>
       <c r="H95" s="1">
-        <v>-31756000</v>
+        <v>-81005000</v>
       </c>
       <c r="I95" s="1">
-        <v>-81005000</v>
+        <v>-30000000</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q95" s="40" cm="1">
+        <v>129</v>
+      </c>
+      <c r="Q95" s="38" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.4923</v>
+        <v>1.4869000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20">
@@ -6154,22 +6294,22 @@
       <c r="E96" s="1">
         <v>3176000</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>92</v>
+      <c r="F96" s="1">
+        <v>1488000</v>
       </c>
       <c r="G96" s="1">
-        <v>1488000</v>
+        <v>1503000</v>
       </c>
       <c r="H96" s="1">
-        <v>1503000</v>
+        <v>1677000</v>
       </c>
       <c r="I96" s="1">
-        <v>1677000</v>
+        <v>8053000</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q96" s="39">
+        <v>130</v>
+      </c>
+      <c r="Q96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6178,35 +6318,35 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G97" s="1">
+        <v>91</v>
+      </c>
+      <c r="F97" s="1">
         <v>-7904000</v>
       </c>
+      <c r="G97" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P97" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q97" s="38">
+        <v>91</v>
+      </c>
+      <c r="P97" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q97" s="36">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.105193515</v>
+        <v>0.10655320800000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19">
@@ -6214,33 +6354,33 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1">
         <v>-68000000</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q98" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="P98" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q98" s="68"/>
     </row>
     <row r="99" spans="1:18" ht="20">
       <c r="A99" s="5" t="s">
@@ -6258,24 +6398,24 @@
       <c r="E99" s="1">
         <v>1510000</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>92</v>
+      <c r="F99" s="1">
+        <v>-771000</v>
       </c>
       <c r="G99" s="1">
-        <v>-771000</v>
+        <v>18853000</v>
       </c>
       <c r="H99" s="1">
-        <v>18853000</v>
+        <v>50218000</v>
       </c>
       <c r="I99" s="1">
         <v>50218000</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q99" s="25">
         <f>Q86+Q87</f>
-        <v>117001000</v>
+        <v>82259000</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="20">
@@ -6294,24 +6434,24 @@
       <c r="E100" s="10">
         <v>-5564000</v>
       </c>
-      <c r="F100" s="10" t="s">
-        <v>92</v>
+      <c r="F100" s="10">
+        <v>-16675000</v>
       </c>
       <c r="G100" s="10">
-        <v>-16675000</v>
+        <v>-11400000</v>
       </c>
       <c r="H100" s="10">
-        <v>-11400000</v>
+        <v>-29110000</v>
       </c>
       <c r="I100" s="10">
-        <v>-29110000</v>
-      </c>
-      <c r="P100" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q100" s="36">
+        <v>-22735000</v>
+      </c>
+      <c r="P100" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q100" s="34">
         <f>Q99/Q103</f>
-        <v>1.9550765354045756E-2</v>
+        <v>1.3623997022655723E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20">
@@ -6319,35 +6459,35 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q101" s="41" cm="1">
+        <v>135</v>
+      </c>
+      <c r="Q101" s="39" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5867470599</v>
+        <v>5955543259</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20">
@@ -6366,24 +6506,24 @@
       <c r="E102" s="10">
         <v>41146000</v>
       </c>
-      <c r="F102" s="10" t="s">
-        <v>92</v>
+      <c r="F102" s="10">
+        <v>-7707000</v>
       </c>
       <c r="G102" s="10">
-        <v>-7707000</v>
+        <v>11601000</v>
       </c>
       <c r="H102" s="10">
-        <v>11601000</v>
+        <v>-14415000</v>
       </c>
       <c r="I102" s="10">
-        <v>-14415000</v>
-      </c>
-      <c r="P102" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q102" s="36">
+        <v>77425000</v>
+      </c>
+      <c r="P102" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q102" s="34">
         <f>Q101/Q103</f>
-        <v>0.98044923464595424</v>
+        <v>0.98637600297734429</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20">
@@ -6402,24 +6542,24 @@
       <c r="E103" s="1">
         <v>10059000</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>92</v>
+      <c r="F103" s="1">
+        <v>53874000</v>
       </c>
       <c r="G103" s="1">
-        <v>53874000</v>
+        <v>46167000</v>
       </c>
       <c r="H103" s="1">
-        <v>46167000</v>
+        <v>57768000</v>
       </c>
       <c r="I103" s="1">
-        <v>57768000</v>
-      </c>
-      <c r="P103" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q103" s="42">
+        <v>43353000</v>
+      </c>
+      <c r="P103" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q103" s="40">
         <f>Q99+Q101</f>
-        <v>5984471599</v>
+        <v>6037802259</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1">
@@ -6438,275 +6578,311 @@
       <c r="E104" s="11">
         <v>51205000</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>92</v>
+      <c r="F104" s="11">
+        <v>46167000</v>
       </c>
       <c r="G104" s="11">
-        <v>46167000</v>
+        <v>57768000</v>
       </c>
       <c r="H104" s="11">
-        <v>57768000</v>
+        <v>43353000</v>
       </c>
       <c r="I104" s="11">
-        <v>43353000</v>
-      </c>
-      <c r="P104" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q104" s="71"/>
+        <v>120778000</v>
+      </c>
+      <c r="P104" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q104" s="68"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-1.4975134832247672</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-1.6805575109108828</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>8.6628051303268521</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15" t="e">
-        <f>(G106/F106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105" si="22">(H106/G106)-1</f>
-        <v>-0.34077555816686256</v>
-      </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
-        <v>-0.3611147341419938</v>
-      </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
+        <v>164</v>
+      </c>
+      <c r="B105" s="1">
+        <f>(B22*(1-$Q$91))+B77+B88+B81</f>
+        <v>31111726.659799606</v>
+      </c>
+      <c r="C105" s="1">
+        <f>(C22*(1-$Q$91))+C77+C88+C81</f>
+        <v>16610669.257421106</v>
+      </c>
+      <c r="D105" s="1">
+        <f>(D22*(1-$Q$91))+D77+D88+D81</f>
+        <v>738687.51755782217</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$Q$91))+E77+E88+E81</f>
+        <v>39158261.541342825</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-$Q$91))+F77+F88+F81</f>
+        <v>32198862.4403034</v>
+      </c>
+      <c r="G105" s="1">
+        <f>(G22*(1-$Q$91))+G77+G88+G81</f>
+        <v>10826781.533851482</v>
+      </c>
+      <c r="H105" s="1">
+        <f>(H22*(1-$Q$91))+H77+H88+H81</f>
+        <v>4168009.1768892258</v>
+      </c>
+      <c r="I105" s="1">
+        <f>(I22*(1-$Q$91))+I77+I88+I81</f>
+        <v>80650444.049068272</v>
+      </c>
+      <c r="J105" s="41">
+        <f>I105*(1+$Q$106)</f>
+        <v>93842668.923013985</v>
+      </c>
+      <c r="K105" s="41">
+        <f t="shared" ref="K105:N105" si="21">J105*(1+$Q$106)</f>
+        <v>109192783.92610602</v>
+      </c>
+      <c r="L105" s="41">
+        <f t="shared" si="21"/>
+        <v>127053761.34724642</v>
+      </c>
+      <c r="M105" s="41">
+        <f t="shared" si="21"/>
+        <v>147836310.16686288</v>
+      </c>
+      <c r="N105" s="41">
+        <f t="shared" si="21"/>
+        <v>172018320.21344206</v>
+      </c>
+      <c r="O105" s="42" t="s">
+        <v>157</v>
+      </c>
       <c r="P105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q105" s="27">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.10343915291979654</v>
+        <v>0.1054224847828491</v>
       </c>
       <c r="R105" s="15"/>
     </row>
     <row r="106" spans="1:18" ht="19">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-1.4975134832247672</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-1.6805575109108828</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>8.6628051303268521</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.25302932990794258</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.34077555816686256</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.3611147341419938</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>5.8159237835998638</v>
+      </c>
+      <c r="J106" s="62">
+        <v>62029000</v>
+      </c>
+      <c r="K106" s="62">
+        <v>116600000</v>
+      </c>
+      <c r="L106" s="62">
+        <v>136600000</v>
+      </c>
+      <c r="M106" s="62">
+        <v>191800000</v>
+      </c>
+      <c r="N106" s="62">
+        <v>226600000</v>
+      </c>
+      <c r="O106" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P106" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q106" s="44">
+        <f>(SUM(J4:N4)/5)</f>
+        <v>0.16357287339818574</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="19">
+      <c r="A107" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
         <v>14277000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-7103000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>4834000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>46710000</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="1">
+      <c r="F107" s="1">
         <v>34891000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="G107" s="1">
         <v>23001000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="H107" s="1">
         <v>14695000</v>
       </c>
-      <c r="J106" s="65">
-        <f>I107*(1+$Q$106)</f>
-        <v>86883298.101775736</v>
-      </c>
-      <c r="K106" s="43">
-        <f t="shared" ref="K106:N106" si="23">J106*(1+$Q$106)</f>
-        <v>100649433.18722704</v>
-      </c>
-      <c r="L106" s="43">
-        <f t="shared" si="23"/>
-        <v>116596729.43174143</v>
-      </c>
-      <c r="M106" s="43">
-        <f t="shared" si="23"/>
-        <v>135070778.67880106</v>
-      </c>
-      <c r="N106" s="43">
-        <f t="shared" si="23"/>
-        <v>156471929.71718997</v>
-      </c>
-      <c r="O106" s="44" t="s">
+      <c r="I107" s="1">
+        <v>100160000</v>
+      </c>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="77">
+        <f>N106*(1+Q107)/(Q108-Q107)</f>
+        <v>2888060479.9409628</v>
+      </c>
+      <c r="O107" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="P107" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="P106" s="45" t="s">
+      <c r="Q107" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="19">
+      <c r="J108" s="77">
+        <f t="shared" ref="J108:M108" si="22">J107+J106</f>
+        <v>62029000</v>
+      </c>
+      <c r="K108" s="77">
+        <f t="shared" si="22"/>
+        <v>116600000</v>
+      </c>
+      <c r="L108" s="77">
+        <f t="shared" si="22"/>
+        <v>136600000</v>
+      </c>
+      <c r="M108" s="77">
+        <f t="shared" si="22"/>
+        <v>191800000</v>
+      </c>
+      <c r="N108" s="77">
+        <f>N107+N106</f>
+        <v>3114660479.9409628</v>
+      </c>
+      <c r="O108" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="P108" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="Q106" s="46">
-        <f>(SUM(J4:N4)/5)</f>
-        <v>0.15844397469034316</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="19">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="1">
-        <v>75000000</v>
-      </c>
-      <c r="J107" s="44"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="47">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>2044689698.8307729</v>
-      </c>
-      <c r="O107" s="48" t="s">
+      <c r="Q108" s="49">
+        <f>Q105</f>
+        <v>0.1054224847828491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="19">
+      <c r="J109" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="P107" s="49" t="s">
+      <c r="K109" s="64"/>
+    </row>
+    <row r="110" spans="1:18" ht="20">
+      <c r="J110" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="Q107" s="50">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="19">
-      <c r="J108" s="47">
-        <f t="shared" ref="J108:L108" si="24">J107+J106</f>
-        <v>86883298.101775736</v>
-      </c>
-      <c r="K108" s="47">
-        <f t="shared" si="24"/>
-        <v>100649433.18722704</v>
-      </c>
-      <c r="L108" s="47">
-        <f t="shared" si="24"/>
-        <v>116596729.43174143</v>
-      </c>
-      <c r="M108" s="47">
-        <f>M107+M106</f>
-        <v>135070778.67880106</v>
-      </c>
-      <c r="N108" s="47">
-        <f>N107+N106</f>
-        <v>2201161628.5479627</v>
-      </c>
-      <c r="O108" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="P108" s="51" t="s">
+      <c r="K110" s="39">
+        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
+        <v>2268099483.5116477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="20">
+      <c r="J111" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="Q108" s="52">
-        <f>Q105</f>
-        <v>0.10343915291979654</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="19">
-      <c r="J109" s="66" t="s">
+      <c r="K111" s="39">
+        <f>I40</f>
+        <v>120778000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="20">
+      <c r="J112" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="K112" s="39">
+        <f>Q99</f>
+        <v>82259000</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11" ht="20">
+      <c r="J113" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="K109" s="67"/>
-    </row>
-    <row r="110" spans="1:18" ht="20">
-      <c r="J110" s="53" t="s">
+      <c r="K113" s="39">
+        <f>K110+K111-K112</f>
+        <v>2306618483.5116477</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" ht="20">
+      <c r="J114" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="K110" s="41">
-        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>1684878397.7867734</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="20">
-      <c r="J111" s="53" t="s">
+      <c r="K114" s="51">
+        <f>I34*(1+(5*O16))</f>
+        <v>63313284.022004567</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" ht="20">
+      <c r="J115" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="K111" s="41">
-        <f>I40</f>
-        <v>43353000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="20">
-      <c r="J112" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="K112" s="41">
-        <f>Q99</f>
-        <v>117001000</v>
-      </c>
-    </row>
-    <row r="113" spans="10:11" ht="20">
-      <c r="J113" s="53" t="s">
+      <c r="K115" s="53">
+        <f>K113/K114</f>
+        <v>36.43182499757841</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20">
+      <c r="J116" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="K113" s="41">
-        <f>K110+K111-K112</f>
-        <v>1611230397.7867734</v>
-      </c>
-    </row>
-    <row r="114" spans="10:11" ht="20">
-      <c r="J114" s="53" t="s">
+      <c r="K116" s="54" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Price")</f>
+        <v>110.56</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20">
+      <c r="J117" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="K114" s="54">
-        <f>I34*(1+(5*O16))</f>
-        <v>61044006.21797929</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20">
-      <c r="J115" s="55" t="s">
+      <c r="K117" s="56">
+        <f>K115/K116-1</f>
+        <v>-0.67047915161379879</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20">
+      <c r="J118" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="K115" s="56">
-        <f>K113/K114</f>
-        <v>26.394571680523448</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20">
-      <c r="J116" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="K116" s="57" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>108.925</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20">
-      <c r="J117" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="K117" s="59">
-        <f>K115/K116-1</f>
-        <v>-0.75768123313726465</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20">
-      <c r="J118" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="K118" s="60" t="str">
+      <c r="K118" s="57" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6730,17 +6906,18 @@
     <hyperlink ref="D74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003318000014/0001600033-18-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003319000011/0001600033-19-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003319000011/0001600033-19-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G36" r:id="rId12" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G74" r:id="rId13" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H36" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003321000030/0001600033-21-000030-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003321000030/0001600033-21-000030-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J1" r:id="rId18" display="https://finbox.com/NYSE:ELF/explorer/revenue_proj" xr:uid="{3C7D420B-54AA-3E4A-A648-BF685D03E02A}"/>
+    <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003321000030/0001600033-21-000030-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003321000030/0001600033-21-000030-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H36" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J1" r:id="rId16" display="https://finbox.com/NYSE:ELF/explorer/revenue_proj" xr:uid="{3C7D420B-54AA-3E4A-A648-BF685D03E02A}"/>
+    <hyperlink ref="O106" r:id="rId17" xr:uid="{53FD0CC1-B5CC-0D44-A760-0C8403C852B7}"/>
+    <hyperlink ref="I36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{9C93562C-50E6-104A-9D0B-5C6B92DD52E7}"/>
+    <hyperlink ref="I74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1600033/000160003322000027/0001600033-22-000027-index.htm" xr:uid="{04E0E647-4219-0642-B415-38F52210CE98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475F254-9706-724C-ADE1-2F866FE1CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06394E-F8AD-354B-A569-4AFF0057A10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6080" yWindow="3020" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$107:$I$107</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$28:$I$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$28:$I$28</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$107:$I$107</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -578,9 +564,6 @@
     <t>3yr FCF Growth</t>
   </si>
   <si>
-    <t>Share Dilution (3yr)</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -588,6 +571,9 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Share Dilution (5yr)</t>
   </si>
 </sst>
 </file>
@@ -600,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1065,6 +1051,25 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1083,25 +1088,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2213,9 +2199,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2224,19 +2208,24 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Top 10"/>
+      <sheetName val="High Quality"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2247,22 +2236,13 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7679999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2987,10 +2967,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomRight" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3111,7 +3091,7 @@
       <c r="H3" s="1">
         <v>392155000</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="67">
         <v>578800000</v>
       </c>
       <c r="J3" s="29">
@@ -3638,7 +3618,7 @@
         <v>321800000</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>115</v>
@@ -3680,18 +3660,18 @@
         <v>510200000</v>
       </c>
       <c r="O16" s="31">
-        <f>SUM(G35:I35)/3</f>
-        <v>2.8823896859317532E-2</v>
-      </c>
-      <c r="P16" s="71">
+        <f>SUM(E35:I35)/5</f>
+        <v>2.2958900066016502E-2</v>
+      </c>
+      <c r="P16" s="65">
         <f>Q101/I3</f>
         <v>10.28946658431237</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="65">
         <f>Q101/I28</f>
         <v>96.790886705672037</v>
       </c>
-      <c r="R16" s="72">
+      <c r="R16" s="66">
         <f>Q101/I107</f>
         <v>59.46029611621406</v>
       </c>
@@ -3813,17 +3793,17 @@
         <f>I40-I56-I61</f>
         <v>38519000</v>
       </c>
-      <c r="P19" s="71">
+      <c r="P19" s="65">
         <f>Q101/J3</f>
         <v>7.5577960139593907</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="65">
         <f>Q101/J28</f>
         <v>58.444978007850835</v>
       </c>
-      <c r="R19" s="72">
+      <c r="R19" s="66">
         <f>Q101/J106</f>
-        <v>96.012240387560652</v>
+        <v>65.995248986059707</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1">
@@ -3964,11 +3944,11 @@
       <c r="I22" s="10">
         <v>68143000</v>
       </c>
-      <c r="Q22" s="69">
+      <c r="Q22" s="63">
         <f>(-1*I98)/Q101</f>
         <v>0</v>
       </c>
-      <c r="R22" s="70">
+      <c r="R22" s="64">
         <f>I107/Q101</f>
         <v>1.6817945172111461E-2</v>
       </c>
@@ -4296,19 +4276,19 @@
       <c r="I31" s="12">
         <v>1.17</v>
       </c>
-      <c r="J31" s="74">
+      <c r="J31" s="68">
         <v>1.89</v>
       </c>
-      <c r="K31" s="74">
+      <c r="K31" s="68">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L31" s="74">
+      <c r="L31" s="68">
         <v>2.88</v>
       </c>
-      <c r="M31" s="74">
+      <c r="M31" s="68">
         <v>3.65</v>
       </c>
-      <c r="N31" s="74">
+      <c r="N31" s="68">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -5839,10 +5819,10 @@
       <c r="I83" s="1">
         <v>81323000</v>
       </c>
-      <c r="P83" s="65" t="s">
+      <c r="P83" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="Q83" s="66"/>
+      <c r="Q83" s="75"/>
     </row>
     <row r="84" spans="1:17" ht="19">
       <c r="A84" s="5" t="s">
@@ -5872,10 +5852,10 @@
       <c r="I84" s="1">
         <v>31427000</v>
       </c>
-      <c r="P84" s="67" t="s">
+      <c r="P84" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="Q84" s="68"/>
+      <c r="Q84" s="77"/>
     </row>
     <row r="85" spans="1:17" ht="20">
       <c r="A85" s="5" t="s">
@@ -6201,10 +6181,10 @@
       <c r="I93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P93" s="67" t="s">
+      <c r="P93" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="Q93" s="68"/>
+      <c r="Q93" s="77"/>
     </row>
     <row r="94" spans="1:17" ht="20">
       <c r="A94" s="6" t="s">
@@ -6237,9 +6217,9 @@
       <c r="P94" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="Q94" s="75">
+      <c r="Q94" s="69">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7679999999999998E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20">
@@ -6346,7 +6326,7 @@
       </c>
       <c r="Q97" s="36">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.10655320800000001</v>
+        <v>0.10585207200000001</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19">
@@ -6377,10 +6357,10 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="67" t="s">
+      <c r="P98" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="Q98" s="68"/>
+      <c r="Q98" s="77"/>
     </row>
     <row r="99" spans="1:18" ht="20">
       <c r="A99" s="5" t="s">
@@ -6590,45 +6570,45 @@
       <c r="I104" s="11">
         <v>120778000</v>
       </c>
-      <c r="P104" s="67" t="s">
+      <c r="P104" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="Q104" s="68"/>
+      <c r="Q104" s="77"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" s="1">
-        <f>(B22*(1-$Q$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:I105" si="21">(B22*(1-$Q$91))+B77+B88+B81</f>
         <v>31111726.659799606</v>
       </c>
       <c r="C105" s="1">
-        <f>(C22*(1-$Q$91))+C77+C88+C81</f>
+        <f t="shared" si="21"/>
         <v>16610669.257421106</v>
       </c>
       <c r="D105" s="1">
-        <f>(D22*(1-$Q$91))+D77+D88+D81</f>
+        <f t="shared" si="21"/>
         <v>738687.51755782217</v>
       </c>
       <c r="E105" s="1">
-        <f>(E22*(1-$Q$91))+E77+E88+E81</f>
+        <f t="shared" si="21"/>
         <v>39158261.541342825</v>
       </c>
       <c r="F105" s="1">
-        <f>(F22*(1-$Q$91))+F77+F88+F81</f>
+        <f t="shared" si="21"/>
         <v>32198862.4403034</v>
       </c>
       <c r="G105" s="1">
-        <f>(G22*(1-$Q$91))+G77+G88+G81</f>
+        <f t="shared" si="21"/>
         <v>10826781.533851482</v>
       </c>
       <c r="H105" s="1">
-        <f>(H22*(1-$Q$91))+H77+H88+H81</f>
+        <f t="shared" si="21"/>
         <v>4168009.1768892258</v>
       </c>
       <c r="I105" s="1">
-        <f>(I22*(1-$Q$91))+I77+I88+I81</f>
+        <f t="shared" si="21"/>
         <v>80650444.049068272</v>
       </c>
       <c r="J105" s="41">
@@ -6636,19 +6616,19 @@
         <v>93842668.923013985</v>
       </c>
       <c r="K105" s="41">
-        <f t="shared" ref="K105:N105" si="21">J105*(1+$Q$106)</f>
+        <f t="shared" ref="K105:N105" si="22">J105*(1+$Q$106)</f>
         <v>109192783.92610602</v>
       </c>
       <c r="L105" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>127053761.34724642</v>
       </c>
       <c r="M105" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>147836310.16686288</v>
       </c>
       <c r="N105" s="41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>172018320.21344206</v>
       </c>
       <c r="O105" s="42" t="s">
@@ -6659,57 +6639,57 @@
       </c>
       <c r="Q105" s="27">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.1054224847828491</v>
+        <v>0.10473090105762557</v>
       </c>
       <c r="R105" s="15"/>
     </row>
     <row r="106" spans="1:18" ht="19">
       <c r="A106" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:I106" si="23">(C107/B107)-1</f>
         <v>-1.4975134832247672</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="23"/>
         <v>-1.6805575109108828</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="23"/>
         <v>8.6628051303268521</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="23"/>
         <v>-0.25302932990794258</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="23"/>
         <v>-0.34077555816686256</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="23"/>
         <v>-0.3611147341419938</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="23"/>
         <v>5.8159237835998638</v>
       </c>
       <c r="J106" s="62">
-        <v>62029000</v>
+        <v>90242000</v>
       </c>
       <c r="K106" s="62">
-        <v>116600000</v>
+        <v>131400000</v>
       </c>
       <c r="L106" s="62">
-        <v>136600000</v>
+        <v>175200000</v>
       </c>
       <c r="M106" s="62">
-        <v>191800000</v>
+        <v>240300000</v>
       </c>
       <c r="N106" s="62">
-        <v>226600000</v>
+        <v>281400000</v>
       </c>
       <c r="O106" s="42" t="s">
         <v>158</v>
@@ -6723,8 +6703,8 @@
       </c>
     </row>
     <row r="107" spans="1:18" ht="19">
-      <c r="A107" s="76" t="s">
-        <v>166</v>
+      <c r="A107" s="70" t="s">
+        <v>165</v>
       </c>
       <c r="B107" s="1">
         <v>14277000</v>
@@ -6754,9 +6734,9 @@
       <c r="K107" s="42"/>
       <c r="L107" s="42"/>
       <c r="M107" s="42"/>
-      <c r="N107" s="77">
+      <c r="N107" s="71">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>2888060479.9409628</v>
+        <v>3878475916.8968215</v>
       </c>
       <c r="O107" s="45" t="s">
         <v>140</v>
@@ -6765,29 +6745,29 @@
         <v>141</v>
       </c>
       <c r="Q107" s="47">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19">
-      <c r="J108" s="77">
-        <f t="shared" ref="J108:M108" si="22">J107+J106</f>
-        <v>62029000</v>
-      </c>
-      <c r="K108" s="77">
-        <f t="shared" si="22"/>
-        <v>116600000</v>
-      </c>
-      <c r="L108" s="77">
-        <f t="shared" si="22"/>
-        <v>136600000</v>
-      </c>
-      <c r="M108" s="77">
-        <f t="shared" si="22"/>
-        <v>191800000</v>
-      </c>
-      <c r="N108" s="77">
+      <c r="J108" s="71">
+        <f t="shared" ref="J108:M108" si="24">J107+J106</f>
+        <v>90242000</v>
+      </c>
+      <c r="K108" s="71">
+        <f t="shared" si="24"/>
+        <v>131400000</v>
+      </c>
+      <c r="L108" s="71">
+        <f t="shared" si="24"/>
+        <v>175200000</v>
+      </c>
+      <c r="M108" s="71">
+        <f t="shared" si="24"/>
+        <v>240300000</v>
+      </c>
+      <c r="N108" s="71">
         <f>N107+N106</f>
-        <v>3114660479.9409628</v>
+        <v>4159875916.8968215</v>
       </c>
       <c r="O108" s="45" t="s">
         <v>137</v>
@@ -6797,14 +6777,14 @@
       </c>
       <c r="Q108" s="49">
         <f>Q105</f>
-        <v>0.1054224847828491</v>
+        <v>0.10473090105762557</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19">
-      <c r="J109" s="63" t="s">
+      <c r="J109" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="K109" s="64"/>
+      <c r="K109" s="73"/>
     </row>
     <row r="110" spans="1:18" ht="20">
       <c r="J110" s="50" t="s">
@@ -6812,7 +6792,7 @@
       </c>
       <c r="K110" s="39">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>2268099483.5116477</v>
+        <v>3008756050.822361</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20">
@@ -6839,7 +6819,7 @@
       </c>
       <c r="K113" s="39">
         <f>K110+K111-K112</f>
-        <v>2306618483.5116477</v>
+        <v>3047275050.822361</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20">
@@ -6848,7 +6828,7 @@
       </c>
       <c r="K114" s="51">
         <f>I34*(1+(5*O16))</f>
-        <v>63313284.022004567</v>
+        <v>61690498.059266105</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20">
@@ -6857,7 +6837,7 @@
       </c>
       <c r="K115" s="53">
         <f>K113/K114</f>
-        <v>36.43182499757841</v>
+        <v>49.396181692273608</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20">
@@ -6875,7 +6855,7 @@
       </c>
       <c r="K117" s="56">
         <f>K115/K116-1</f>
-        <v>-0.67047915161379879</v>
+        <v>-0.55321832767480461</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20">

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E64EA-7AAA-834E-8599-D3FD55CEE548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44053602-57A6-EA49-9565-32BE26C1A4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,13 +1558,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1581,7 +1578,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1593,9 +1590,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1722,12 +1716,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>139.85</v>
-    <v>41.52</v>
-    <v>1.4990000000000001</v>
-    <v>-5.48</v>
-    <v>-5.0534999999999997E-2</v>
-    <v>0.68</v>
-    <v>6.6049999999999998E-3</v>
+    <v>44.28</v>
+    <v>1.5172000000000001</v>
+    <v>3.47</v>
+    <v>3.6704000000000001E-2</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -1735,25 +1727,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>109.5968</v>
+    <v>109</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45225.999997210158</v>
+    <v>45232.99970028906</v>
     <v>0</v>
-    <v>102.31</v>
-    <v>5606925667</v>
+    <v>90.34</v>
+    <v>5337361933</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>109.39</v>
-    <v>61.323399999999999</v>
-    <v>108.44</v>
-    <v>102.96</v>
-    <v>103.64</v>
+    <v>105.584</v>
+    <v>55.425199999999997</v>
+    <v>94.54</v>
+    <v>98.01</v>
     <v>54457320</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>1031586</v>
-    <v>1410936</v>
+    <v>654</v>
+    <v>1390992</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -1785,8 +1776,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1807,7 +1796,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1824,7 +1812,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1835,16 +1823,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1910,19 +1895,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1967,9 +1946,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1977,9 +1953,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13337,7 +13310,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13386,7 +13359,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5606925667</v>
+        <v>5337361933</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>197</v>
@@ -13414,7 +13387,7 @@
       </c>
       <c r="I3" s="47">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3387490371.8883476</v>
+        <v>3369463424.87994</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>201</v>
@@ -13459,14 +13432,14 @@
       </c>
       <c r="I4" s="57">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2744253860.098248</v>
+        <v>2728487016.6629596</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="46" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-5.0534999999999997E-2</v>
+        <v>3.6704000000000001E-2</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>207</v>
@@ -13509,14 +13482,14 @@
       </c>
       <c r="I5" s="57">
         <f>I4+G5-G6</f>
-        <v>2811622860.098248</v>
+        <v>2795856016.6629596</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>102.96</v>
+        <v>98.01</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>214</v>
@@ -13534,7 +13507,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>7.1153879022842643</v>
+        <v>6.7733019454314718</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>216</v>
@@ -13562,14 +13535,14 @@
       </c>
       <c r="I6" s="64">
         <f>N25</f>
-        <v>0.10064597146209867</v>
+        <v>0.10105068454159896</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="65">
         <f>I5/G4</f>
-        <v>46.425467561452621</v>
+        <v>46.165125718014231</v>
       </c>
       <c r="L6" s="66" t="s">
         <v>220</v>
@@ -13587,14 +13560,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>41.22739461029412</v>
+        <v>39.245308330882352</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="71">
         <f>F14/A3</f>
-        <v>1.6943331451517173E-2</v>
+        <v>1.7799055262231925E-2</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>223</v>
@@ -13621,7 +13594,7 @@
       </c>
       <c r="K7" s="78">
         <f>K6/K5-1</f>
-        <v>-0.54909219540158682</v>
+        <v>-0.52897535233124959</v>
       </c>
       <c r="L7" s="79" t="s">
         <v>226</v>
@@ -13926,7 +13899,7 @@
       </c>
       <c r="O14" s="97">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="50"/>
     </row>
@@ -13976,7 +13949,7 @@
       </c>
       <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.4990000000000001</v>
+        <v>1.5172000000000001</v>
       </c>
       <c r="P15" s="50"/>
     </row>
@@ -14031,7 +14004,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.1017644</v>
+        <v>0.10223130000000001</v>
       </c>
       <c r="P17" s="50"/>
     </row>
@@ -14106,7 +14079,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5606925667</v>
+        <v>5337361933</v>
       </c>
       <c r="P20" s="50"/>
     </row>
@@ -14128,7 +14101,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>5682105667</v>
+        <v>5412541933</v>
       </c>
       <c r="P21" s="50"/>
     </row>
@@ -14151,7 +14124,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>1.323101054537288E-2</v>
+        <v>1.3889961672468764E-2</v>
       </c>
       <c r="P22" s="50"/>
     </row>
@@ -14174,7 +14147,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.9867689894546271</v>
+        <v>0.98611003832753119</v>
       </c>
       <c r="P23" s="50"/>
     </row>
@@ -14214,7 +14187,7 @@
       <c r="M25" s="88"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10064597146209867</v>
+        <v>0.10105068454159896</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="50"/>

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44053602-57A6-EA49-9565-32BE26C1A4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF184F9-47A0-D548-B9A4-8BD61267B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1716,10 +1716,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>139.85</v>
-    <v>44.28</v>
-    <v>1.5172000000000001</v>
-    <v>3.47</v>
-    <v>3.6704000000000001E-2</v>
+    <v>48.1</v>
+    <v>1.5088999999999999</v>
+    <v>1.32</v>
+    <v>1.345E-2</v>
+    <v>-0.9</v>
+    <v>-9.0500000000000008E-3</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -1727,24 +1729,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>109</v>
+    <v>101.99</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45232.99970028906</v>
+    <v>45239.963826596875</v>
     <v>0</v>
-    <v>90.34</v>
-    <v>5337361933</v>
+    <v>95.77</v>
+    <v>5490114421</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>105.584</v>
-    <v>55.425199999999997</v>
-    <v>94.54</v>
-    <v>98.01</v>
-    <v>54457320</v>
+    <v>97.62</v>
+    <v>45.9711</v>
+    <v>98.14</v>
+    <v>99.46</v>
+    <v>98.55</v>
+    <v>55199220</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>654</v>
-    <v>1390992</v>
+    <v>1722839</v>
+    <v>1631037</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -1776,6 +1779,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1796,6 +1801,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1812,7 +1818,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1823,13 +1829,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1895,13 +1904,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1946,6 +1961,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1953,6 +1971,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13310,7 +13331,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13359,7 +13380,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5337361933</v>
+        <v>5490114421</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>197</v>
@@ -13387,7 +13408,7 @@
       </c>
       <c r="I3" s="47">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3369463424.87994</v>
+        <v>3314122251.2575126</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>201</v>
@@ -13425,21 +13446,21 @@
       </c>
       <c r="G4" s="55">
         <f>A5*(1+(5*G3))</f>
-        <v>60562079.56067539</v>
+        <v>61387147.831131324</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>245</v>
       </c>
       <c r="I4" s="57">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2728487016.6629596</v>
+        <v>2680094157.9845152</v>
       </c>
       <c r="J4" s="54" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="46" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.6704000000000001E-2</v>
+        <v>1.345E-2</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>207</v>
@@ -13454,7 +13475,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>54457320</v>
+        <v>55199220</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>209</v>
@@ -13482,14 +13503,14 @@
       </c>
       <c r="I5" s="57">
         <f>I4+G5-G6</f>
-        <v>2795856016.6629596</v>
+        <v>2747463157.9845152</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>98.01</v>
+        <v>99.46</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>214</v>
@@ -13507,7 +13528,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>6.7733019454314718</v>
+        <v>6.9671502804568526</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>216</v>
@@ -13535,14 +13556,14 @@
       </c>
       <c r="I6" s="64">
         <f>N25</f>
-        <v>0.10105068454159896</v>
+        <v>0.10232062385531142</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="65">
         <f>I5/G4</f>
-        <v>46.165125718014231</v>
+        <v>44.756325306763827</v>
       </c>
       <c r="L6" s="66" t="s">
         <v>220</v>
@@ -13560,14 +13581,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>39.245308330882352</v>
+        <v>40.368488389705881</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="71">
         <f>F14/A3</f>
-        <v>1.7799055262231925E-2</v>
+        <v>1.7303828793917227E-2</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>223</v>
@@ -13594,7 +13615,7 @@
       </c>
       <c r="K7" s="78">
         <f>K6/K5-1</f>
-        <v>-0.52897535233124959</v>
+        <v>-0.55000678356360511</v>
       </c>
       <c r="L7" s="79" t="s">
         <v>226</v>
@@ -13899,7 +13920,7 @@
       </c>
       <c r="O14" s="97">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="50"/>
     </row>
@@ -13949,7 +13970,7 @@
       </c>
       <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5172000000000001</v>
+        <v>1.5088999999999999</v>
       </c>
       <c r="P15" s="50"/>
     </row>
@@ -14004,7 +14025,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10223130000000001</v>
+        <v>0.103485781</v>
       </c>
       <c r="P17" s="50"/>
     </row>
@@ -14079,7 +14100,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5337361933</v>
+        <v>5490114421</v>
       </c>
       <c r="P20" s="50"/>
     </row>
@@ -14101,7 +14122,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>5412541933</v>
+        <v>5565294421</v>
       </c>
       <c r="P21" s="50"/>
     </row>
@@ -14124,7 +14145,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>1.3889961672468764E-2</v>
+        <v>1.3508719272122764E-2</v>
       </c>
       <c r="P22" s="50"/>
     </row>
@@ -14147,7 +14168,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.98611003832753119</v>
+        <v>0.98649128072787728</v>
       </c>
       <c r="P23" s="50"/>
     </row>
@@ -14187,7 +14208,7 @@
       <c r="M25" s="88"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10105068454159896</v>
+        <v>0.10232062385531142</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="50"/>

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF184F9-47A0-D548-B9A4-8BD61267B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEE2AB-E257-F848-9C9C-55FC5B6A0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="248">
   <si>
     <t>2014 Y</t>
   </si>
@@ -812,6 +812,12 @@
   </si>
   <si>
     <t>Projected Shares</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1070,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1115,65 +1121,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1182,23 +1131,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,8 +1171,193 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1216,7 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,134 +1434,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1420,110 +1453,242 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,7 +1743,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.6280000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1717,11 +1882,11 @@
     <v>Powered by Refinitiv</v>
     <v>139.85</v>
     <v>48.1</v>
-    <v>1.5088999999999999</v>
-    <v>1.32</v>
-    <v>1.345E-2</v>
-    <v>-0.9</v>
-    <v>-9.0500000000000008E-3</v>
+    <v>1.5024</v>
+    <v>8.93</v>
+    <v>9.1797000000000004E-2</v>
+    <v>-0.23</v>
+    <v>-2.166E-3</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -1729,25 +1894,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>101.99</v>
+    <v>107.53</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45239.963826596875</v>
+    <v>45245.039607117971</v>
     <v>0</v>
-    <v>95.77</v>
-    <v>5490114421</v>
+    <v>100.04</v>
+    <v>5862709156</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>97.62</v>
-    <v>45.9711</v>
-    <v>98.14</v>
-    <v>99.46</v>
-    <v>98.55</v>
+    <v>101</v>
+    <v>45.568199999999997</v>
+    <v>97.28</v>
+    <v>106.21</v>
+    <v>105.98</v>
     <v>55199220</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>1722839</v>
-    <v>1631037</v>
+    <v>1840157</v>
+    <v>1713853</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -1912,9 +2077,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2359,9 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10500,8 +10665,8 @@
       <c r="J172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K172" s="5" t="s">
-        <v>15</v>
+      <c r="K172" s="5">
+        <v>0</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>15</v>
@@ -13321,7 +13486,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:O1 A4:O7 A15:O16 A19:O33 A191:O195 A2:O2 A9:O11 A13:O13 A37:O128 A130:O142 A144:O187 A188:D188 O188 I188:M188 F188:G188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:O1 A4:O7 A15:O16 A19:O33 A191:O195 A2:O2 A9:O11 A13:O13 A37:O128 A130:O142 A144:O171 A188:D188 O188 I188:M188 F188:G188 A173:O187 A172:J172 L172:O172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13331,7 +13496,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13339,1727 +13504,1789 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" cm="1">
+      <c r="A3" s="76" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5490114421</v>
-      </c>
-      <c r="B3" s="43" t="s">
+        <v>5862709156</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="78">
         <f>Financials!K8*0.01</f>
         <v>0.68390000000000006</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="78">
         <f>SUM(C11:E11)/3</f>
         <v>0.27782678145740275</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="80">
         <f>AVERAGE(Financials!G129:K129)</f>
         <v>2.2420345182889621E-2</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="47">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>3314122251.2575126</v>
-      </c>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="81">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>3333755725.8563232</v>
+      </c>
+      <c r="J3" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="119" t="s">
+      <c r="K3" s="83">
+        <f>(Financials!K172*-1)/A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="50"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="A4" s="85">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>67369000</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="44">
         <f>Financials!K17*0.01</f>
         <v>0.15960000000000002</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="44">
         <f>SUM(C13:E13)/3</f>
         <v>1.2226983514193825</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="88">
         <f>A5*(1+(5*G3))</f>
         <v>61387147.831131324</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="I4" s="57">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2680094157.9845152</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="43">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>2697260818.2476606</v>
+      </c>
+      <c r="J4" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="K4" s="46" cm="1">
+      <c r="K4" s="89" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.345E-2</v>
-      </c>
-      <c r="L4" s="45" t="s">
+        <v>9.1797000000000004E-2</v>
+      </c>
+      <c r="L4" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="121" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="50"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" cm="1">
+      <c r="A5" s="85" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>55199220</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="58">
-        <f>Financials!K34*0.01</f>
-        <v>0.1487</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="44">
+        <f>F14</f>
+        <v>0.17258883248730963</v>
+      </c>
+      <c r="D5" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="53">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="44">
+        <f>SUM(C16:E16)/3</f>
         <v>1.4645770728473029</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="88">
         <f>Financials!K56</f>
         <v>142549000</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="43">
         <f>I4+G5-G6</f>
-        <v>2747463157.9845152</v>
-      </c>
-      <c r="J5" s="54" t="s">
+        <v>2764629818.2476606</v>
+      </c>
+      <c r="J5" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="92" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>99.46</v>
-      </c>
-      <c r="L5" s="52" t="s">
+        <v>106.21</v>
+      </c>
+      <c r="L5" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="60" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="106">
         <f>Financials!K21</f>
         <v>1355000</v>
       </c>
-      <c r="P5" s="50"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="94">
         <f>O20/F10</f>
-        <v>6.9671502804568526</v>
-      </c>
-      <c r="B6" s="52" t="s">
+        <v>7.4399862385786806</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="53">
-        <f>Financials!K190</f>
-        <v>0.13954672887469483</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="44">
+        <f>F17</f>
+        <v>0.12055837563451777</v>
+      </c>
+      <c r="D6" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="44">
         <f>Financials!K33/Financials!K126</f>
         <v>0.21207881247058524</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="88">
         <f>Financials!K96+Financials!K105</f>
         <v>75180000</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="89">
         <f>N25</f>
-        <v>0.10232062385531142</v>
-      </c>
-      <c r="J6" s="56" t="s">
+        <v>0.10186525980669398</v>
+      </c>
+      <c r="J6" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="45">
         <f>I5/G4</f>
-        <v>44.756325306763827</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>45.035971142572471</v>
+      </c>
+      <c r="L6" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="42"/>
+      <c r="N6" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="106">
         <f>Financials!K96</f>
         <v>5431000</v>
       </c>
-      <c r="P6" s="50"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96">
         <f>O20/F12</f>
-        <v>40.368488389705881</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>43.108155558823526</v>
+      </c>
+      <c r="B7" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="71">
-        <f>F14/A3</f>
-        <v>1.7303828793917227E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="98">
+        <f>F15/A3</f>
+        <v>1.6204112718567205E-2</v>
+      </c>
+      <c r="D7" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="99">
         <f>(Financials!K16*(1-0.25))/(Financials!K126+Financials!K105+Financials!K96)</f>
         <v>0.14721548707033694</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="100">
         <f>(Financials!K96+Financials!K105)/Financials!K126</f>
         <v>0.15938028670643753</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="102">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.55000678356360511</v>
-      </c>
-      <c r="L7" s="79" t="s">
+        <v>-0.57597240238609859</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="106">
         <f>Financials!K105</f>
         <v>69749000</v>
       </c>
-      <c r="P7" s="50"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="81" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>1.8023410481511039E-2</v>
       </c>
-      <c r="P8" s="50"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57">
         <v>2019</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="57">
         <v>2020</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="57">
         <v>2021</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="58">
         <v>2022</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="59">
         <v>2023</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="60">
         <v>2024</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="60">
         <v>2025</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="60">
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="61">
         <v>2027</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="106">
         <f>Financials!K25</f>
         <v>4585000</v>
       </c>
-      <c r="P9" s="50"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="63">
         <v>282851000</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="63">
         <v>318110000</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="63">
         <v>392155000</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="64">
         <v>578844000</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="63">
         <v>788000000</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="63">
         <v>957000000</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="63">
         <v>1179000000</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="63">
         <v>1324000000</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="64">
         <v>1423000000</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="106">
         <f>Financials!K24</f>
         <v>104623000</v>
       </c>
-      <c r="P10" s="50"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94">
+      <c r="A11" s="65"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.12465573747308656</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="49">
         <f t="shared" si="0"/>
         <v>0.23276539561786813</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="49">
         <f t="shared" si="0"/>
         <v>0.47605921128125361</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>0.36133396908320714</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="49">
         <f t="shared" si="0"/>
         <v>0.21446700507614214</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>0.23197492163009414</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="49">
         <f t="shared" si="0"/>
         <v>0.12298558100084822</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="66">
         <f t="shared" si="0"/>
         <v>7.4773413897280872E-2</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="66">
         <f>SUM(F11:J11)/5</f>
         <v>0.20110697813751449</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>4.3824015751794537E-2</v>
       </c>
-      <c r="P11" s="50"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="63">
         <v>17884000</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="63">
         <v>6232000</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="63">
         <v>21770000</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="63">
         <v>61530000</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="67">
         <v>136000000</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="63">
         <v>150000000</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="63">
         <v>254000000</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="63">
         <v>252000000</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="64">
         <v>283000000</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>1.7233552256668241E-2</v>
       </c>
-      <c r="P12" s="50"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94">
+      <c r="A13" s="65"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.65153209572802506</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="49">
         <f t="shared" si="1"/>
         <v>2.493260590500642</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="49">
         <f t="shared" si="1"/>
         <v>1.8263665594855305</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="50">
         <f t="shared" si="1"/>
         <v>1.2103039167885585</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="49">
         <f t="shared" si="1"/>
         <v>0.10294117647058831</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="49">
         <f t="shared" si="1"/>
         <v>0.69333333333333336</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="49">
         <f t="shared" si="1"/>
         <v>-7.8740157480314821E-3</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="66">
         <f t="shared" si="1"/>
         <v>0.12301587301587302</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="66">
         <f>SUM(F13:J13)/5</f>
         <v>0.42434405677206433</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="121" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="50"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="53">
+        <f>B12/B10</f>
+        <v>6.322763575168551E-2</v>
+      </c>
+      <c r="C14" s="53">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>1.9590707616862092E-2</v>
+      </c>
+      <c r="D14" s="53">
+        <f t="shared" si="2"/>
+        <v>5.5513763690377527E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.10629806994630678</v>
+      </c>
+      <c r="F14" s="54">
+        <f t="shared" si="2"/>
+        <v>0.17258883248730963</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.15673981191222572</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.2154368108566582</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="2"/>
+        <v>0.19033232628398791</v>
+      </c>
+      <c r="J14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.1988756148981026</v>
+      </c>
+      <c r="K14" s="55"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.6280000000000002E-2</v>
+      </c>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B15" s="63">
         <v>39577293</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C15" s="63">
         <v>23001000</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="63">
         <v>16784598</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E15" s="63">
         <v>102097877</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F15" s="67">
         <v>95000000</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G15" s="63">
         <v>135000000</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H15" s="63">
         <v>201000000</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I15" s="63">
         <v>211000000</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J15" s="64">
         <v>250000000</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K15" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="97">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="50"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="110" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.5024</v>
+      </c>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.41883342046662964</v>
       </c>
-      <c r="D15" s="94">
-        <f t="shared" si="2"/>
+      <c r="D16" s="49">
+        <f t="shared" si="3"/>
         <v>-0.27026659710447376</v>
       </c>
-      <c r="E15" s="94">
-        <f t="shared" si="2"/>
+      <c r="E16" s="49">
+        <f t="shared" si="3"/>
         <v>5.0828312361130124</v>
       </c>
-      <c r="F15" s="95">
-        <f t="shared" si="2"/>
+      <c r="F16" s="50">
+        <f t="shared" si="3"/>
         <v>-6.9520319212905912E-2</v>
       </c>
-      <c r="G15" s="94">
-        <f t="shared" si="2"/>
+      <c r="G16" s="49">
+        <f t="shared" si="3"/>
         <v>0.42105263157894735</v>
       </c>
-      <c r="H15" s="94">
-        <f t="shared" si="2"/>
+      <c r="H16" s="49">
+        <f t="shared" si="3"/>
         <v>0.48888888888888893</v>
       </c>
-      <c r="I15" s="94">
-        <f t="shared" si="2"/>
+      <c r="I16" s="49">
+        <f t="shared" si="3"/>
         <v>4.9751243781094523E-2</v>
       </c>
-      <c r="J15" s="94">
-        <f t="shared" si="2"/>
+      <c r="J16" s="66">
+        <f t="shared" si="3"/>
         <v>0.18483412322274884</v>
       </c>
-      <c r="K15" s="96">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="66">
+        <f>SUM(F16:J16)/5</f>
         <v>0.21500131365175473</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" s="101" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5088999999999999</v>
-      </c>
-      <c r="P15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="53">
+        <f>B15/B10</f>
+        <v>0.13992276145391036</v>
+      </c>
+      <c r="C17" s="53">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>7.2305177454339689E-2</v>
+      </c>
+      <c r="D17" s="53">
+        <f t="shared" si="4"/>
+        <v>4.2800928204408971E-2</v>
+      </c>
+      <c r="E17" s="55">
+        <f t="shared" si="4"/>
+        <v>0.17638237072510038</v>
+      </c>
+      <c r="F17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.12055837563451777</v>
+      </c>
+      <c r="G17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.14106583072100312</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.17048346055979643</v>
+      </c>
+      <c r="I17" s="53">
+        <f t="shared" si="4"/>
+        <v>0.15936555891238671</v>
+      </c>
+      <c r="J17" s="55">
+        <f t="shared" si="4"/>
+        <v>0.17568517217146873</v>
+      </c>
+      <c r="K17" s="55"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.10295052800000001</v>
+      </c>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B18" s="70">
         <v>4.5849423311381247E-2</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C18" s="70">
         <v>2.1694661586581655E-2</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D18" s="70">
         <v>5.2618700872155262E-2</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E18" s="70">
         <v>0.10458352603166937</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="O16" s="97">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="50"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.103485781</v>
-      </c>
-      <c r="P17" s="50"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="121" t="s">
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="50"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Specialty Retailers</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="123" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2013</v>
-      </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="67" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>75180000</v>
       </c>
-      <c r="P19" s="50"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" s="113" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>5862709156</v>
+      </c>
+      <c r="P20" s="42"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="126" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2013</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="O21" s="113">
+        <f>O19+O20</f>
+        <v>5937889156</v>
+      </c>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="126" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5490114421</v>
-      </c>
-      <c r="P20" s="50"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>5565294421</v>
-      </c>
-      <c r="P21" s="50"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="81" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>1.3508719272122764E-2</v>
-      </c>
-      <c r="P22" s="50"/>
+        <v>1.2661064904526486E-2</v>
+      </c>
+      <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="104" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.98649128072787728</v>
-      </c>
-      <c r="P23" s="50"/>
+        <v>0.98733893509547355</v>
+      </c>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="113" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="50"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="115">
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10232062385531142</v>
-      </c>
-      <c r="O25" s="116"/>
-      <c r="P25" s="50"/>
+        <v>0.10186525980669398</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="50"/>
-      <c r="P82" s="50"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="50"/>
-      <c r="P84" s="50"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="50"/>
-      <c r="P87" s="50"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="50"/>
-      <c r="P89" s="50"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="50"/>
-      <c r="P91" s="50"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="50"/>
-      <c r="P92" s="50"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="50"/>
-      <c r="P93" s="50"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="50"/>
-      <c r="P95" s="50"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="50"/>
-      <c r="P96" s="50"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="50"/>
-      <c r="P97" s="50"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="50"/>
-      <c r="P98" s="50"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="50"/>
-      <c r="P99" s="50"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="50"/>
-      <c r="P100" s="50"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="50"/>
-      <c r="P101" s="50"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="50"/>
-      <c r="P102" s="50"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="50"/>
-      <c r="P103" s="50"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="50"/>
-      <c r="P104" s="50"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="50"/>
-      <c r="P106" s="50"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="50"/>
-      <c r="P107" s="50"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="50"/>
-      <c r="P108" s="50"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="50"/>
-      <c r="P110" s="50"/>
+      <c r="O110" s="42"/>
+      <c r="P110" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15067,8 +15294,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:ELF/explorer/revenue_proj" xr:uid="{3FAA7702-664D-D147-BE22-4FA1DEFEF7E0}"/>

--- a/Consumer/E.l.f Beauty.xlsx
+++ b/Consumer/E.l.f Beauty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEE2AB-E257-F848-9C9C-55FC5B6A0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A8440-4870-654C-B0E6-12560C36587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1365,7 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,11 +1684,14 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1721,11 +1724,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1743,7 +1749,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6280000000000002E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1755,6 +1761,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1882,11 +1891,11 @@
     <v>Powered by Refinitiv</v>
     <v>139.85</v>
     <v>48.1</v>
-    <v>1.5024</v>
-    <v>8.93</v>
-    <v>9.1797000000000004E-2</v>
-    <v>-0.23</v>
-    <v>-2.166E-3</v>
+    <v>1.4338</v>
+    <v>0.33</v>
+    <v>2.5999999999999999E-3</v>
+    <v>0.17</v>
+    <v>1.3359999999999999E-3</v>
     <v>USD</v>
     <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
     <v>339</v>
@@ -1894,25 +1903,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>570 10th St, OAKLAND, CA, 94607-4038 US</v>
-    <v>107.53</v>
+    <v>128.34</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45245.039607117971</v>
+    <v>45269.039478587503</v>
     <v>0</v>
-    <v>100.04</v>
-    <v>5862709156</v>
+    <v>124.28</v>
+    <v>7022996760</v>
     <v>E.L.F. BEAUTY, INC.</v>
     <v>E.L.F. BEAUTY, INC.</v>
-    <v>101</v>
-    <v>45.568199999999997</v>
-    <v>97.28</v>
-    <v>106.21</v>
-    <v>105.98</v>
+    <v>127.32</v>
+    <v>59.442999999999998</v>
+    <v>126.9</v>
+    <v>127.23</v>
+    <v>127.44</v>
     <v>55199220</v>
     <v>ELF</v>
     <v>E.L.F. BEAUTY, INC. (XNYS:ELF)</v>
-    <v>1840157</v>
-    <v>1713853</v>
+    <v>775998</v>
+    <v>1642804</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2077,9 +2086,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13496,7 +13505,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13545,7 +13554,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5862709156</v>
+        <v>7022996760</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>197</v>
@@ -13573,7 +13582,7 @@
       </c>
       <c r="I3" s="81">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3333755725.8563232</v>
+        <v>3342745346.5355597</v>
       </c>
       <c r="J3" s="82" t="s">
         <v>201</v>
@@ -13623,14 +13632,14 @@
       </c>
       <c r="I4" s="43">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2697260818.2476606</v>
+        <v>2705121600.1703062</v>
       </c>
       <c r="J4" s="87" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="89" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.1797000000000004E-2</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L4" s="90" t="s">
         <v>207</v>
@@ -13673,14 +13682,14 @@
       </c>
       <c r="I5" s="43">
         <f>I4+G5-G6</f>
-        <v>2764629818.2476606</v>
+        <v>2772490600.1703062</v>
       </c>
       <c r="J5" s="87" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="92" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>106.21</v>
+        <v>127.23</v>
       </c>
       <c r="L5" s="93" t="s">
         <v>214</v>
@@ -13698,7 +13707,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94">
         <f>O20/F10</f>
-        <v>7.4399862385786806</v>
+        <v>8.9124324365482241</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>216</v>
@@ -13726,14 +13735,14 @@
       </c>
       <c r="I6" s="89">
         <f>N25</f>
-        <v>0.10186525980669398</v>
+        <v>0.10165854662413305</v>
       </c>
       <c r="J6" s="87" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="45">
         <f>I5/G4</f>
-        <v>45.035971142572471</v>
+        <v>45.164023710583443</v>
       </c>
       <c r="L6" s="95" t="s">
         <v>220</v>
@@ -13751,14 +13760,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <f>O20/F12</f>
-        <v>43.108155558823526</v>
+        <v>51.639682058823531</v>
       </c>
       <c r="B7" s="97" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="98">
         <f>F15/A3</f>
-        <v>1.6204112718567205E-2</v>
+        <v>1.352698901145442E-2</v>
       </c>
       <c r="D7" s="97" t="s">
         <v>223</v>
@@ -13785,7 +13794,7 @@
       </c>
       <c r="K7" s="104">
         <f>K6/K5-1</f>
-        <v>-0.57597240238609859</v>
+        <v>-0.64502064206096488</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>226</v>
@@ -14097,7 +14106,7 @@
       </c>
       <c r="O14" s="109">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6280000000000002E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="42"/>
     </row>
@@ -14142,7 +14151,7 @@
       </c>
       <c r="O15" s="110" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.5024</v>
+        <v>1.4338</v>
       </c>
       <c r="P15" s="42"/>
     </row>
@@ -14243,7 +14252,7 @@
       </c>
       <c r="O17" s="112">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10295052800000001</v>
+        <v>0.10256230199999999</v>
       </c>
       <c r="P17" s="42"/>
     </row>
@@ -14319,7 +14328,7 @@
       </c>
       <c r="O20" s="113" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5862709156</v>
+        <v>7022996760</v>
       </c>
       <c r="P20" s="42"/>
     </row>
@@ -14347,19 +14356,19 @@
       </c>
       <c r="O21" s="113">
         <f>O19+O20</f>
-        <v>5937889156</v>
+        <v>7098176760</v>
       </c>
       <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126" t="str" cm="1">
+      <c r="A22" s="128" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>e.l.f. Beauty, Inc. is a multi-brand beauty company. The Company offers inclusive, accessible, clean, vegan, and cruelty-free cosmetics and skincare products. The Company offers a range of products that are vegan and cruelty-free. The Company's brands include e.l.f. Cosmetics, e.l.f. SKIN, Well People, and Keys Soulcare. e.l.f. SKIN is an ingredient-focused, dermatologist-developed formula for every eye, lip, face and skin concern. The Company operates across beauty categories including eye, lip, and face makeup, beauty tools and accessories, and skincare products. Its color cosmetics and skin care products are broadly sold through food, drug, and mass channels, as well as through department stores and direct and specialty channels. The Company's brands are available online and across beauty, mass market and specialty retailers in the United States.</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -14373,16 +14382,16 @@
       </c>
       <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>1.2661064904526486E-2</v>
+        <v>1.0591452219626044E-2</v>
       </c>
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
@@ -14396,16 +14405,16 @@
       </c>
       <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.98733893509547355</v>
+        <v>0.9894085477803739</v>
       </c>
       <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
@@ -14421,11 +14430,11 @@
       <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -14436,17 +14445,17 @@
       <c r="M25" s="48"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10186525980669398</v>
+        <v>0.10165854662413305</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="126"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
@@ -14460,11 +14469,11 @@
       <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="126"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -14478,11 +14487,11 @@
       <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
@@ -14496,11 +14505,11 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
@@ -14514,11 +14523,11 @@
       <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
